--- a/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C5359-DB71-4511-86DD-DC0B850A62AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA1CE84-AB6C-4F79-91E2-374092B65E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$117</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у</t>
   </si>
 </sst>
 </file>
@@ -1777,11 +1780,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1640"/>
+  <dimension ref="A1:M1641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J125" sqref="J125"/>
+      <pane ySplit="9" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1929,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D115,4)</f>
+        <f>RIGHT(D11:D116,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1957,7 +1960,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D116,4)</f>
+        <f>RIGHT(D12:D117,4)</f>
         <v>5992</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -1981,7 +1984,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D117,4)</f>
+        <f>RIGHT(D13:D118,4)</f>
         <v>6268</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2005,7 +2008,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D118,4)</f>
+        <f>RIGHT(D14:D119,4)</f>
         <v>6247</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2029,7 +2032,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D118,4)</f>
+        <f>RIGHT(D15:D119,4)</f>
         <v>6325</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2059,7 +2062,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D121,4)</f>
+        <f>RIGHT(D16:D122,4)</f>
         <v>6426</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2083,7 +2086,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D122,4)</f>
+        <f>RIGHT(D17:D123,4)</f>
         <v>4063</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2113,7 +2116,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D123,4)</f>
+        <f>RIGHT(D18:D124,4)</f>
         <v>6333</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2143,7 +2146,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D124,4)</f>
+        <f>RIGHT(D19:D125,4)</f>
         <v>4574</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2173,7 +2176,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D125,4)</f>
+        <f>RIGHT(D20:D126,4)</f>
         <v>6861</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2203,7 +2206,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D129,4)</f>
+        <f>RIGHT(D21:D130,4)</f>
         <v>6862</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2227,7 +2230,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D129,4)</f>
+        <f>RIGHT(D22:D130,4)</f>
         <v>6341</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2251,7 +2254,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D130,4)</f>
+        <f>RIGHT(D23:D131,4)</f>
         <v>6747</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2281,7 +2284,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D133,4)</f>
+        <f>RIGHT(D24:D134,4)</f>
         <v>4813</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2311,7 +2314,7 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D134,4)</f>
+        <f>RIGHT(D25:D135,4)</f>
         <v>6392</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2341,7 +2344,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D136,4)</f>
+        <f>RIGHT(D26:D137,4)</f>
         <v>5851</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2371,7 +2374,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D137,4)</f>
+        <f>RIGHT(D27:D138,4)</f>
         <v>6158</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2399,7 +2402,7 @@
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D139,4)</f>
+        <f>RIGHT(D28:D140,4)</f>
         <v>6340</v>
       </c>
       <c r="B28" s="97" t="s">
@@ -2427,7 +2430,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D137,4)</f>
+        <f>RIGHT(D29:D138,4)</f>
         <v>6353</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2457,7 +2460,7 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D138,4)</f>
+        <f>RIGHT(D30:D139,4)</f>
         <v/>
       </c>
       <c r="B30" s="74" t="s">
@@ -2474,7 +2477,7 @@
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D141,4)</f>
+        <f>RIGHT(D31:D142,4)</f>
         <v>6870</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2499,7 +2502,7 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D141,4)</f>
+        <f>RIGHT(D32:D142,4)</f>
         <v>6602</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2524,7 +2527,7 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D144,4)</f>
+        <f>RIGHT(D33:D145,4)</f>
         <v>6768</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2549,7 +2552,7 @@
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D145,4)</f>
+        <f>RIGHT(D34:D146,4)</f>
         <v>6770</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2574,7 +2577,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D148,4)</f>
+        <f>RIGHT(D35:D149,4)</f>
         <v>6829</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2598,7 +2601,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D153,4)</f>
+        <f>RIGHT(D36:D154,4)</f>
         <v>6854</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2622,7 +2625,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D154,4)</f>
+        <f>RIGHT(D37:D155,4)</f>
         <v>6852</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2646,7 +2649,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D154,4)</f>
+        <f>RIGHT(D38:D155,4)</f>
         <v>6853</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2670,7 +2673,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D155,4)</f>
+        <f>RIGHT(D39:D156,4)</f>
         <v>6759</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2694,7 +2697,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D155,4)</f>
+        <f>RIGHT(D40:D156,4)</f>
         <v>6303</v>
       </c>
       <c r="B40" s="70" t="s">
@@ -2725,7 +2728,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D156,4)</f>
+        <f>RIGHT(D41:D157,4)</f>
         <v>6777</v>
       </c>
       <c r="B41" s="70" t="s">
@@ -2750,7 +2753,7 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D156,4)</f>
+        <f>RIGHT(D42:D157,4)</f>
         <v>6726</v>
       </c>
       <c r="B42" s="45" t="s">
@@ -2780,7 +2783,7 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D157,4)</f>
+        <f>RIGHT(D43:D158,4)</f>
         <v>6762</v>
       </c>
       <c r="B43" s="45" t="s">
@@ -2806,7 +2809,7 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D157,4)</f>
+        <f>RIGHT(D44:D158,4)</f>
         <v>5820</v>
       </c>
       <c r="B44" s="45" t="s">
@@ -2832,7 +2835,7 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D159,4)</f>
+        <f>RIGHT(D45:D160,4)</f>
         <v>6764</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -2856,7 +2859,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D161,4)</f>
+        <f>RIGHT(D46:D162,4)</f>
         <v>6761</v>
       </c>
       <c r="B46" s="45" t="s">
@@ -2880,7 +2883,7 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D162,4)</f>
+        <f>RIGHT(D47:D163,4)</f>
         <v>6767</v>
       </c>
       <c r="B47" s="45" t="s">
@@ -2904,7 +2907,7 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D162,4)</f>
+        <f>RIGHT(D48:D163,4)</f>
         <v>6765</v>
       </c>
       <c r="B48" s="45" t="s">
@@ -2928,7 +2931,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D162,4)</f>
+        <f>RIGHT(D49:D163,4)</f>
         <v>6722</v>
       </c>
       <c r="B49" s="45" t="s">
@@ -2958,7 +2961,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D163,4)</f>
+        <f>RIGHT(D50:D164,4)</f>
         <v>6837</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -2984,7 +2987,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D163,4)</f>
+        <f>RIGHT(D51:D164,4)</f>
         <v>3812</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -3014,7 +3017,7 @@
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D164,4)</f>
+        <f>RIGHT(D52:D165,4)</f>
         <v>6113</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3045,7 +3048,7 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D165,4)</f>
+        <f>RIGHT(D53:D166,4)</f>
         <v>6661</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3070,7 +3073,7 @@
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D166,4)</f>
+        <f>RIGHT(D54:D167,4)</f>
         <v>6713</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3095,7 +3098,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D162,4)</f>
+        <f>RIGHT(D55:D163,4)</f>
         <v/>
       </c>
       <c r="B55" s="74" t="s">
@@ -3112,7 +3115,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D163,4)</f>
+        <f>RIGHT(D56:D164,4)</f>
         <v>5698</v>
       </c>
       <c r="B56" s="46" t="s">
@@ -3142,7 +3145,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D166,4)</f>
+        <f>RIGHT(D57:D167,4)</f>
         <v>6528</v>
       </c>
       <c r="B57" s="46" t="s">
@@ -3166,7 +3169,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D168,4)</f>
+        <f>RIGHT(D58:D169,4)</f>
         <v>6527</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -3196,7 +3199,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D169,4)</f>
+        <f>RIGHT(D59:D170,4)</f>
         <v/>
       </c>
       <c r="B59" s="74" t="s">
@@ -3213,7 +3216,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D170,4)</f>
+        <f>RIGHT(D60:D171,4)</f>
         <v>6666</v>
       </c>
       <c r="B60" s="27" t="s">
@@ -3243,7 +3246,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D171,4)</f>
+        <f>RIGHT(D61:D172,4)</f>
         <v>6785</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -3267,7 +3270,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D172,4)</f>
+        <f>RIGHT(D62:D173,4)</f>
         <v>6786</v>
       </c>
       <c r="B62" s="27" t="s">
@@ -3289,120 +3292,123 @@
       <c r="I62" s="14"/>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D171,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D63:D174,4)</f>
+        <v>6794</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001303106773</v>
+        <v>1001303636794</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F63" s="23"/>
       <c r="G63" s="23">
-        <f>E63*0.28</f>
+        <f>E63</f>
         <v>0</v>
       </c>
-      <c r="H63" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H63" s="14"/>
       <c r="I63" s="14">
         <v>45</v>
       </c>
       <c r="J63" s="39"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K63" s="82"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D174,4)</f>
-        <v/>
-      </c>
-      <c r="B64" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="75"/>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D64:D172,4)</f>
+        <v>6773</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="28">
+        <v>1001303106773</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G64" s="23">
+        <f>E64*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I64" s="14">
+        <v>45</v>
+      </c>
+      <c r="J64" s="39"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
         <f>RIGHT(D65:D175,4)</f>
+        <v/>
+      </c>
+      <c r="B65" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="75"/>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="94" t="str">
+        <f>RIGHT(D66:D176,4)</f>
         <v>6683</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B66" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="28">
-        <v>1001300386683</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G65" s="23">
-        <f>E65*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I65" s="14">
-        <v>45</v>
-      </c>
-      <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D177,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>79</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="28">
-        <v>1001303636793</v>
+        <v>1001300386683</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="23"/>
+      <c r="F66" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G66" s="23">
-        <f>E66*0.33</f>
+        <f>E66*0.35</f>
         <v>0</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="H66" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I66" s="14">
+        <v>45</v>
+      </c>
       <c r="J66" s="39"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
         <f>RIGHT(D67:D178,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23"/>
@@ -3416,17 +3422,17 @@
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D178,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D68:D179,4)</f>
+        <v>6795</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23"/>
@@ -3440,76 +3446,76 @@
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D178,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D69:D179,4)</f>
+        <v>6807</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F69" s="23"/>
       <c r="G69" s="23">
-        <f>E69*0.28</f>
+        <f>E69*0.33</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I69" s="14">
-        <v>45</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D180,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D70:D179,4)</f>
+        <v>6684</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="28">
-        <v>1001300456787</v>
+        <v>1001304506684</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G70" s="23">
-        <f>E70*0.33</f>
+        <f>E70*0.28</f>
         <v>0</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="H70" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I70" s="14">
+        <v>45</v>
+      </c>
       <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
         <f>RIGHT(D71:D181,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D71" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23">
-        <f>E71*1</f>
+        <f>E71*0.33</f>
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
@@ -3519,16 +3525,16 @@
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
         <f>RIGHT(D72:D182,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
@@ -3542,125 +3548,125 @@
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D181,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>86</v>
+        <f>RIGHT(D73:D183,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="28">
-        <v>1001303986689</v>
+        <v>1001300366790</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F73" s="23"/>
       <c r="G73" s="23">
-        <f>E73*0.35</f>
+        <f>E73*1</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I73" s="14">
-        <v>45</v>
-      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
         <f>RIGHT(D74:D182,4)</f>
-        <v>6791</v>
+        <v>6689</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="28">
-        <v>1001304096791</v>
+        <v>1001303986689</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G74" s="23">
-        <f>E74*0.33</f>
+        <f>E74*0.35</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="H74" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I74" s="14">
+        <v>45</v>
+      </c>
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
         <f>RIGHT(D75:D183,4)</f>
-        <v>5341</v>
+        <v>6791</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>23</v>
+        <v>87</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D75" s="28">
-        <v>1001053985341</v>
+        <v>1001304096791</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23">
-        <v>0.71250000000000002</v>
-      </c>
+      <c r="F75" s="23"/>
       <c r="G75" s="23">
-        <f>E75*1</f>
+        <f>E75*0.33</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I75" s="14">
-        <v>45</v>
-      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D185,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D76:D184,4)</f>
+        <v>5341</v>
       </c>
       <c r="B76" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001215576586</v>
+        <v>1001053985341</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="23"/>
+      <c r="F76" s="23">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="G76" s="23">
-        <f>E76*0.09</f>
+        <f>E76*1</f>
         <v>0</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="H76" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I76" s="14">
+        <v>45</v>
+      </c>
       <c r="J76" s="39"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D183,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D77:D186,4)</f>
+        <v>6586</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
@@ -3674,219 +3680,213 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D183,4)</f>
+        <f>RIGHT(D78:D184,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23">
+        <f>E78*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="39"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="94" t="str">
+        <f>RIGHT(D79:D184,4)</f>
         <v>5544</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B79" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D79" s="28">
         <v>1001051875544</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G78" s="23">
-        <f>E78*1</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I78" s="14">
-        <v>45</v>
-      </c>
-      <c r="J78" s="39"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="94" t="str">
-        <f t="shared" ref="A79:A84" si="0">RIGHT(D79:D185,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="28">
-        <v>1001301876697</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G79" s="23">
-        <f>E79*0.35</f>
+        <f>E79*1</f>
         <v>0</v>
       </c>
       <c r="H79" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I79" s="14">
         <v>45</v>
       </c>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="94" t="str">
+        <f t="shared" ref="A80:A85" si="0">RIGHT(D80:D186,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G80" s="23">
+        <f>E80*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I80" s="14">
+        <v>45</v>
+      </c>
+      <c r="J80" s="39"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B80" s="74" t="s">
+      <c r="B81" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="75"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="94" t="str">
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="75"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="94" t="str">
         <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B82" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G81" s="23">
-        <f>E81*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="14">
-        <v>2</v>
-      </c>
-      <c r="I81" s="14">
-        <v>120</v>
-      </c>
-      <c r="J81" s="39"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G82" s="23">
-        <f>E82*0.1</f>
+        <f>E82*0.25</f>
         <v>0</v>
       </c>
       <c r="H82" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I82" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6222</v>
+        <v>6454</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G83" s="23">
-        <f>E83*0.09</f>
+        <f>E83*0.1</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="H83" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I83" s="14">
+        <v>60</v>
+      </c>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>5931</v>
+        <v>6222</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F84" s="23"/>
       <c r="G84" s="23">
-        <f>E84*0.22</f>
+        <f>E84*0.09</f>
         <v>0</v>
       </c>
-      <c r="H84" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I84" s="14">
-        <v>120</v>
-      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D192,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>23</v>
+        <v>97</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D85" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G85" s="23">
-        <f>E85*1</f>
+        <f>E85*0.22</f>
         <v>0</v>
       </c>
       <c r="H85" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I85" s="14">
         <v>120</v>
@@ -3896,231 +3896,237 @@
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
         <f>RIGHT(D86:D193,4)</f>
-        <v>6834</v>
+        <v>5708</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D86" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G86" s="23">
-        <f>E86*0.1</f>
+        <f>E86*1</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I86" s="14">
+        <v>120</v>
+      </c>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D197,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D87:D194,4)</f>
+        <v>6834</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="28">
-        <v>1001060764993</v>
+        <v>1001203146834</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="23">
-        <f>E87*0.25</f>
+        <f>E87*0.1</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14">
-        <v>2</v>
-      </c>
-      <c r="I87" s="14">
-        <v>120</v>
-      </c>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
         <f>RIGHT(D88:D198,4)</f>
-        <v>5682</v>
+        <v>4993</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="28">
-        <v>1001193115682</v>
+        <v>1001060764993</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G88" s="23">
-        <f>E88*0.12</f>
+        <f>E88*0.25</f>
         <v>0</v>
       </c>
       <c r="H88" s="14">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="I88" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D201,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D89:D199,4)</f>
+        <v>5682</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>23</v>
+        <v>101</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D89" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G89" s="23">
-        <f>E89*1</f>
+        <f>E89*0.12</f>
         <v>0</v>
       </c>
       <c r="H89" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I89" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
         <f>RIGHT(D90:D202,4)</f>
-        <v>5483</v>
+        <v>4117</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D90" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G90" s="23">
-        <f>E90*0.25</f>
+        <f>E90*1</f>
         <v>0</v>
       </c>
       <c r="H90" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I90" s="14">
         <v>120</v>
       </c>
       <c r="J90" s="39"/>
     </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
         <f>RIGHT(D91:D203,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G91" s="23">
-        <f>E91*0.1</f>
+        <f>E91*0.25</f>
         <v>0</v>
       </c>
       <c r="H91" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I91" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="94" t="str">
         <f>RIGHT(D92:D204,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G92" s="23">
+        <f>E92*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I92" s="14">
+        <v>60</v>
+      </c>
+      <c r="J92" s="39"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="94" t="str">
+        <f>RIGHT(D93:D205,4)</f>
         <v/>
       </c>
-      <c r="B92" s="74" t="s">
+      <c r="B93" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="75"/>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D208,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23">
-        <f>E93*1</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="39"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="75"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
         <f>RIGHT(D94:D209,4)</f>
-        <v>6865</v>
+        <v>6470</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="80">
-        <v>1001095716865</v>
+        <v>1001092436470</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23"/>
@@ -4132,131 +4138,138 @@
       <c r="I94" s="14"/>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D206,4)</f>
+        <f>RIGHT(D95:D210,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="80">
+        <v>1001095716865</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23">
+        <f>E95*1</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="39"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="94" t="str">
+        <f>RIGHT(D96:D207,4)</f>
         <v>3215</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B96" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C96" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="51">
+      <c r="D96" s="51">
         <v>1001094053215</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="23">
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
         <v>0.4</v>
       </c>
-      <c r="G95" s="23">
-        <f>E95*0.4</f>
+      <c r="G96" s="23">
+        <f>E96*0.4</f>
         <v>0</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H96" s="14">
         <v>3.2</v>
       </c>
-      <c r="I95" s="14">
+      <c r="I96" s="14">
         <v>60</v>
       </c>
-      <c r="J95" s="39"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D209,4)</f>
+      <c r="J96" s="39"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="94" t="str">
+        <f>RIGHT(D97:D210,4)</f>
         <v/>
       </c>
-      <c r="B96" s="74" t="s">
+      <c r="B97" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="75"/>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D212,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B97" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G97" s="23">
-        <f>E97*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I97" s="14">
-        <v>30</v>
-      </c>
-      <c r="J97" s="39"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="75"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
         <f>RIGHT(D98:D213,4)</f>
-        <v>6919</v>
+        <v>6206</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="28">
-        <v>1001223296919</v>
+        <v>1001084216206</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G98" s="23">
-        <f>E98*0.18</f>
+        <f>E98*0.3</f>
         <v>0</v>
       </c>
-      <c r="H98" s="96"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="93"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H98" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I98" s="14">
+        <v>30</v>
+      </c>
+      <c r="J98" s="39"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="94" t="str">
         <f>RIGHT(D99:D214,4)</f>
-        <v/>
-      </c>
-      <c r="B99" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23">
+        <f>E99*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="96"/>
+      <c r="I99" s="96"/>
+      <c r="J99" s="93"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D217,4)</f>
+        <f>RIGHT(D100:D215,4)</f>
         <v/>
       </c>
       <c r="B100" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="74"/>
       <c r="D100" s="74"/>
@@ -4267,73 +4280,66 @@
       <c r="I100" s="74"/>
       <c r="J100" s="75"/>
     </row>
-    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="94" t="str">
         <f>RIGHT(D101:D218,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G101" s="23">
-        <f>E101*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="14">
-        <v>8</v>
-      </c>
-      <c r="I101" s="72">
-        <v>120</v>
-      </c>
-      <c r="J101" s="39"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B101" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="75"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
         <f>RIGHT(D102:D219,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G102" s="23">
-        <f>E102*0.45</f>
+        <f>E102*0.5</f>
         <v>0</v>
       </c>
-      <c r="H102" s="14"/>
-      <c r="I102" s="72"/>
+      <c r="H102" s="14">
+        <v>8</v>
+      </c>
+      <c r="I102" s="72">
+        <v>120</v>
+      </c>
       <c r="J102" s="39"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
         <f>RIGHT(D103:D220,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
@@ -4345,174 +4351,168 @@
       <c r="I103" s="72"/>
       <c r="J103" s="39"/>
     </row>
-    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f t="shared" ref="A104:A115" si="1">RIGHT(D104:D219,4)</f>
+        <f>RIGHT(D104:D221,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23">
+        <f>E104*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="39"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="94" t="str">
+        <f t="shared" ref="A105:A116" si="1">RIGHT(D105:D220,4)</f>
         <v>6313</v>
       </c>
-      <c r="B104" s="47" t="s">
+      <c r="B105" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C105" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D104" s="28">
+      <c r="D105" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="23">
+      <c r="E105" s="24"/>
+      <c r="F105" s="23">
         <v>0.9</v>
       </c>
-      <c r="G104" s="23">
-        <f>E104*0.9</f>
+      <c r="G105" s="23">
+        <f>E105*0.9</f>
         <v>0</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H105" s="14">
         <v>9</v>
       </c>
-      <c r="I104" s="72">
+      <c r="I105" s="72">
         <v>120</v>
       </c>
-      <c r="J104" s="39"/>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B105" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="75"/>
+      <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>4945</v>
-      </c>
-      <c r="B106" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G106" s="23">
-        <f>E106*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="14">
-        <v>8</v>
-      </c>
-      <c r="I106" s="72">
-        <v>120</v>
-      </c>
-      <c r="J106" s="39"/>
+        <v/>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="75"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B107" s="74" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="23">
+        <f>E107*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="14">
+        <v>8</v>
+      </c>
+      <c r="I107" s="72">
         <v>120</v>
       </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="75"/>
-    </row>
-    <row r="108" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J107" s="39"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>4956</v>
-      </c>
-      <c r="B108" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E108" s="84"/>
-      <c r="F108" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G108" s="85">
-        <f>E108*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I108" s="91">
+        <v/>
+      </c>
+      <c r="B108" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="J108" s="86"/>
-      <c r="K108" s="87"/>
-    </row>
-    <row r="109" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="75"/>
+    </row>
+    <row r="109" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>1762</v>
-      </c>
-      <c r="B109" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="33" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B109" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="23">
+      <c r="D109" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E109" s="84"/>
+      <c r="F109" s="85">
         <v>0.42</v>
       </c>
-      <c r="G109" s="23">
+      <c r="G109" s="85">
         <f>E109*0.42</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H109" s="86">
         <v>4.2</v>
       </c>
-      <c r="I109" s="72">
+      <c r="I109" s="91">
         <v>120</v>
       </c>
-      <c r="J109" s="39"/>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J109" s="86"/>
+      <c r="K109" s="87"/>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
@@ -4530,22 +4530,35 @@
       </c>
       <c r="J110" s="39"/>
     </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B111" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="75"/>
+        <v>1764</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G111" s="23">
+        <f>E111*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I111" s="72">
+        <v>120</v>
+      </c>
+      <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="94" t="str">
@@ -4553,7 +4566,7 @@
         <v/>
       </c>
       <c r="B112" s="74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112" s="74"/>
       <c r="D112" s="74"/>
@@ -4567,130 +4580,137 @@
     <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6004</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="23">
-        <v>1</v>
-      </c>
-      <c r="G113" s="23">
-        <f>E113*1</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="14">
-        <v>8</v>
-      </c>
-      <c r="I113" s="72">
-        <v>120</v>
-      </c>
-      <c r="J113" s="39"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B113" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="75"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>5417</v>
+        <v>6004</v>
       </c>
       <c r="B114" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="D114" s="68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="23">
         <f>E114*1</f>
         <v>0</v>
       </c>
       <c r="H114" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I114" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6019</v>
+        <v>5417</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C115" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="69" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="68" t="s">
+        <v>129</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="23">
         <f>E115*1</f>
         <v>0</v>
       </c>
       <c r="H115" s="14">
+        <v>6</v>
+      </c>
+      <c r="I115" s="72">
+        <v>90</v>
+      </c>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6019</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23">
+        <v>1</v>
+      </c>
+      <c r="G116" s="23">
+        <f>E116*1</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="14">
         <v>12</v>
       </c>
-      <c r="I115" s="72">
+      <c r="I116" s="72">
         <v>120</v>
       </c>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="77"/>
-      <c r="B116" s="77" t="s">
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="77"/>
+      <c r="B117" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="17">
-        <f>SUM(E5:E115)</f>
+      <c r="C117" s="16"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="17">
+        <f>SUM(E5:E116)</f>
         <v>0</v>
       </c>
-      <c r="F116" s="17">
-        <f>SUM(F10:F115)</f>
+      <c r="F117" s="17">
+        <f>SUM(F10:F116)</f>
         <v>34.454166666666673</v>
       </c>
-      <c r="G116" s="17">
-        <f>SUM(G11:G115)</f>
+      <c r="G117" s="17">
+        <f>SUM(G11:G116)</f>
         <v>0</v>
       </c>
-      <c r="H116" s="17">
-        <f>SUM(H10:H112)</f>
+      <c r="H117" s="17">
+        <f>SUM(H10:H113)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="53"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="52"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="21"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B118" s="53"/>
       <c r="C118" s="18"/>
       <c r="D118" s="52"/>
@@ -19920,17 +19940,27 @@
       <c r="I1640" s="20"/>
       <c r="J1640" s="21"/>
     </row>
+    <row r="1641" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1641" s="53"/>
+      <c r="C1641" s="18"/>
+      <c r="D1641" s="52"/>
+      <c r="F1641" s="19"/>
+      <c r="G1641" s="19"/>
+      <c r="H1641" s="20"/>
+      <c r="I1641" s="20"/>
+      <c r="J1641" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B109" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D113:D115" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D114:D116" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA1CE84-AB6C-4F79-91E2-374092B65E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD5294B-DDAF-4E16-950B-68F558E87A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$118</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>БАЛЫКОВАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</t>
   </si>
 </sst>
 </file>
@@ -1780,11 +1783,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1641"/>
+  <dimension ref="A1:M1642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L121" sqref="L121"/>
+      <pane ySplit="9" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D116,4)</f>
+        <f>RIGHT(D11:D117,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1960,7 +1963,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D117,4)</f>
+        <f>RIGHT(D12:D118,4)</f>
         <v>5992</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -1984,7 +1987,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D118,4)</f>
+        <f>RIGHT(D13:D119,4)</f>
         <v>6268</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2008,7 +2011,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D119,4)</f>
+        <f>RIGHT(D14:D120,4)</f>
         <v>6247</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2032,7 +2035,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D119,4)</f>
+        <f>RIGHT(D15:D120,4)</f>
         <v>6325</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2062,7 +2065,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D122,4)</f>
+        <f>RIGHT(D16:D123,4)</f>
         <v>6426</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2086,7 +2089,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D123,4)</f>
+        <f>RIGHT(D17:D124,4)</f>
         <v>4063</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2116,7 +2119,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D124,4)</f>
+        <f>RIGHT(D18:D125,4)</f>
         <v>6333</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2146,7 +2149,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D125,4)</f>
+        <f>RIGHT(D19:D126,4)</f>
         <v>4574</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2176,7 +2179,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D126,4)</f>
+        <f>RIGHT(D20:D127,4)</f>
         <v>6861</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2206,7 +2209,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D130,4)</f>
+        <f>RIGHT(D21:D131,4)</f>
         <v>6862</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2230,7 +2233,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D130,4)</f>
+        <f>RIGHT(D22:D131,4)</f>
         <v>6341</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2254,7 +2257,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D131,4)</f>
+        <f>RIGHT(D23:D132,4)</f>
         <v>6747</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2284,7 +2287,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D134,4)</f>
+        <f>RIGHT(D24:D135,4)</f>
         <v>4813</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2314,7 +2317,7 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D135,4)</f>
+        <f>RIGHT(D25:D136,4)</f>
         <v>6392</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2344,7 +2347,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D137,4)</f>
+        <f>RIGHT(D26:D138,4)</f>
         <v>5851</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2374,7 +2377,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D138,4)</f>
+        <f>RIGHT(D27:D139,4)</f>
         <v>6158</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2402,7 +2405,7 @@
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D140,4)</f>
+        <f>RIGHT(D28:D141,4)</f>
         <v>6340</v>
       </c>
       <c r="B28" s="97" t="s">
@@ -2430,7 +2433,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D138,4)</f>
+        <f>RIGHT(D29:D139,4)</f>
         <v>6353</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2460,7 +2463,7 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D139,4)</f>
+        <f>RIGHT(D30:D140,4)</f>
         <v/>
       </c>
       <c r="B30" s="74" t="s">
@@ -2477,7 +2480,7 @@
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D142,4)</f>
+        <f>RIGHT(D31:D143,4)</f>
         <v>6870</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2502,7 +2505,7 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D142,4)</f>
+        <f>RIGHT(D32:D143,4)</f>
         <v>6602</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2527,7 +2530,7 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D145,4)</f>
+        <f>RIGHT(D33:D146,4)</f>
         <v>6768</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2552,7 +2555,7 @@
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D146,4)</f>
+        <f>RIGHT(D34:D147,4)</f>
         <v>6770</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2577,7 +2580,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D149,4)</f>
+        <f>RIGHT(D35:D150,4)</f>
         <v>6829</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2601,7 +2604,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D154,4)</f>
+        <f>RIGHT(D36:D155,4)</f>
         <v>6854</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2625,7 +2628,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D155,4)</f>
+        <f>RIGHT(D37:D156,4)</f>
         <v>6852</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2649,7 +2652,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D155,4)</f>
+        <f>RIGHT(D38:D156,4)</f>
         <v>6853</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2673,7 +2676,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D156,4)</f>
+        <f>RIGHT(D39:D157,4)</f>
         <v>6759</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2697,7 +2700,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D156,4)</f>
+        <f>RIGHT(D40:D157,4)</f>
         <v>6303</v>
       </c>
       <c r="B40" s="70" t="s">
@@ -2728,7 +2731,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D157,4)</f>
+        <f>RIGHT(D41:D158,4)</f>
         <v>6777</v>
       </c>
       <c r="B41" s="70" t="s">
@@ -2753,7 +2756,7 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D157,4)</f>
+        <f>RIGHT(D42:D158,4)</f>
         <v>6726</v>
       </c>
       <c r="B42" s="45" t="s">
@@ -2783,7 +2786,7 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D158,4)</f>
+        <f>RIGHT(D43:D159,4)</f>
         <v>6762</v>
       </c>
       <c r="B43" s="45" t="s">
@@ -2809,7 +2812,7 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D158,4)</f>
+        <f>RIGHT(D44:D159,4)</f>
         <v>5820</v>
       </c>
       <c r="B44" s="45" t="s">
@@ -2835,7 +2838,7 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D160,4)</f>
+        <f>RIGHT(D45:D161,4)</f>
         <v>6764</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -2859,7 +2862,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D162,4)</f>
+        <f>RIGHT(D46:D163,4)</f>
         <v>6761</v>
       </c>
       <c r="B46" s="45" t="s">
@@ -2883,7 +2886,7 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D163,4)</f>
+        <f>RIGHT(D47:D164,4)</f>
         <v>6767</v>
       </c>
       <c r="B47" s="45" t="s">
@@ -2907,7 +2910,7 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D163,4)</f>
+        <f>RIGHT(D48:D164,4)</f>
         <v>6765</v>
       </c>
       <c r="B48" s="45" t="s">
@@ -2931,7 +2934,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D163,4)</f>
+        <f>RIGHT(D49:D164,4)</f>
         <v>6722</v>
       </c>
       <c r="B49" s="45" t="s">
@@ -2961,7 +2964,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D164,4)</f>
+        <f>RIGHT(D50:D165,4)</f>
         <v>6837</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -2987,7 +2990,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D164,4)</f>
+        <f>RIGHT(D51:D165,4)</f>
         <v>3812</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -3017,7 +3020,7 @@
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D165,4)</f>
+        <f>RIGHT(D52:D166,4)</f>
         <v>6113</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3048,7 +3051,7 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D166,4)</f>
+        <f>RIGHT(D53:D167,4)</f>
         <v>6661</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3073,7 +3076,7 @@
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D167,4)</f>
+        <f>RIGHT(D54:D168,4)</f>
         <v>6713</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3098,7 +3101,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D163,4)</f>
+        <f>RIGHT(D55:D164,4)</f>
         <v/>
       </c>
       <c r="B55" s="74" t="s">
@@ -3115,7 +3118,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D164,4)</f>
+        <f>RIGHT(D56:D165,4)</f>
         <v>5698</v>
       </c>
       <c r="B56" s="46" t="s">
@@ -3145,7 +3148,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D167,4)</f>
+        <f>RIGHT(D57:D168,4)</f>
         <v>6528</v>
       </c>
       <c r="B57" s="46" t="s">
@@ -3169,7 +3172,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D169,4)</f>
+        <f>RIGHT(D58:D170,4)</f>
         <v>6527</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -3199,7 +3202,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D170,4)</f>
+        <f>RIGHT(D59:D171,4)</f>
         <v/>
       </c>
       <c r="B59" s="74" t="s">
@@ -3216,7 +3219,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D171,4)</f>
+        <f>RIGHT(D60:D172,4)</f>
         <v>6666</v>
       </c>
       <c r="B60" s="27" t="s">
@@ -3246,7 +3249,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D172,4)</f>
+        <f>RIGHT(D61:D173,4)</f>
         <v>6785</v>
       </c>
       <c r="B61" s="27" t="s">
@@ -3270,7 +3273,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D173,4)</f>
+        <f>RIGHT(D62:D174,4)</f>
         <v>6786</v>
       </c>
       <c r="B62" s="27" t="s">
@@ -3294,7 +3297,7 @@
     </row>
     <row r="63" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D174,4)</f>
+        <f>RIGHT(D63:D175,4)</f>
         <v>6794</v>
       </c>
       <c r="B63" s="27" t="s">
@@ -3321,7 +3324,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D172,4)</f>
+        <f>RIGHT(D64:D173,4)</f>
         <v>6773</v>
       </c>
       <c r="B64" s="27" t="s">
@@ -3349,9 +3352,9 @@
       </c>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D175,4)</f>
+        <f>RIGHT(D65:D176,4)</f>
         <v/>
       </c>
       <c r="B65" s="74" t="s">
@@ -3366,9 +3369,9 @@
       <c r="I65" s="74"/>
       <c r="J65" s="75"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D176,4)</f>
+        <f>RIGHT(D66:D177,4)</f>
         <v>6683</v>
       </c>
       <c r="B66" s="27" t="s">
@@ -3396,9 +3399,9 @@
       </c>
       <c r="J66" s="39"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D178,4)</f>
+        <f>RIGHT(D67:D179,4)</f>
         <v>6793</v>
       </c>
       <c r="B67" s="27" t="s">
@@ -3420,9 +3423,9 @@
       <c r="I67" s="14"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D179,4)</f>
+        <f>RIGHT(D68:D180,4)</f>
         <v>6795</v>
       </c>
       <c r="B68" s="27" t="s">
@@ -3444,9 +3447,9 @@
       <c r="I68" s="14"/>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D179,4)</f>
+        <f>RIGHT(D69:D180,4)</f>
         <v>6807</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -3468,9 +3471,9 @@
       <c r="I69" s="14"/>
       <c r="J69" s="39"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D179,4)</f>
+        <f>RIGHT(D70:D180,4)</f>
         <v>6684</v>
       </c>
       <c r="B70" s="27" t="s">
@@ -3498,9 +3501,9 @@
       </c>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D181,4)</f>
+        <f>RIGHT(D71:D182,4)</f>
         <v>6787</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -3522,9 +3525,9 @@
       <c r="I71" s="14"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D182,4)</f>
+        <f>RIGHT(D72:D183,4)</f>
         <v>6788</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -3546,9 +3549,9 @@
       <c r="I72" s="14"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D183,4)</f>
+        <f>RIGHT(D73:D184,4)</f>
         <v>6790</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -3570,9 +3573,9 @@
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D182,4)</f>
+        <f>RIGHT(D74:D183,4)</f>
         <v>6689</v>
       </c>
       <c r="B74" s="64" t="s">
@@ -3600,9 +3603,9 @@
       </c>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D183,4)</f>
+        <f>RIGHT(D75:D184,4)</f>
         <v>6791</v>
       </c>
       <c r="B75" s="64" t="s">
@@ -3624,9 +3627,9 @@
       <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D184,4)</f>
+        <f>RIGHT(D76:D185,4)</f>
         <v>5341</v>
       </c>
       <c r="B76" s="64" t="s">
@@ -3654,43 +3657,46 @@
       </c>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
         <f>RIGHT(D77:D186,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="23"/>
+      <c r="F77" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G77" s="23">
-        <f>E77*0.09</f>
+        <f>E77*F77</f>
         <v>0</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="39"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="82"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D184,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D78:D187,4)</f>
+        <v>6586</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23"/>
@@ -3702,221 +3708,215 @@
       <c r="I78" s="14"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D184,4)</f>
+        <f>RIGHT(D79:D185,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23">
+        <f>E79*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="39"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="94" t="str">
+        <f>RIGHT(D80:D185,4)</f>
         <v>5544</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B80" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D80" s="28">
         <v>1001051875544</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G79" s="23">
-        <f>E79*1</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I79" s="14">
-        <v>45</v>
-      </c>
-      <c r="J79" s="39"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="94" t="str">
-        <f t="shared" ref="A80:A85" si="0">RIGHT(D80:D186,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="28">
-        <v>1001301876697</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G80" s="23">
-        <f>E80*0.35</f>
+        <f>E80*1</f>
         <v>0</v>
       </c>
       <c r="H80" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I80" s="14">
         <v>45</v>
       </c>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="94" t="str">
+        <f t="shared" ref="A81:A86" si="0">RIGHT(D81:D187,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G81" s="23">
+        <f>E81*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I81" s="14">
+        <v>45</v>
+      </c>
+      <c r="J81" s="39"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B82" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="75"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94" t="str">
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="75"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="94" t="str">
         <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B83" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G82" s="23">
-        <f>E82*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="14">
-        <v>2</v>
-      </c>
-      <c r="I82" s="14">
-        <v>120</v>
-      </c>
-      <c r="J82" s="39"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G83" s="23">
-        <f>E83*0.1</f>
+        <f>E83*0.25</f>
         <v>0</v>
       </c>
       <c r="H83" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I83" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>6222</v>
+        <v>6454</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="23"/>
+      <c r="F84" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G84" s="23">
-        <f>E84*0.09</f>
+        <f>E84*0.1</f>
         <v>0</v>
       </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="H84" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I84" s="14">
+        <v>60</v>
+      </c>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>5931</v>
+        <v>6222</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F85" s="23"/>
       <c r="G85" s="23">
-        <f>E85*0.22</f>
+        <f>E85*0.09</f>
         <v>0</v>
       </c>
-      <c r="H85" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I85" s="14">
-        <v>120</v>
-      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D193,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>23</v>
+        <v>97</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G86" s="23">
-        <f>E86*1</f>
+        <f>E86*0.22</f>
         <v>0</v>
       </c>
       <c r="H86" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I86" s="14">
         <v>120</v>
@@ -3926,231 +3926,237 @@
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
         <f>RIGHT(D87:D194,4)</f>
-        <v>6834</v>
+        <v>5708</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D87" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G87" s="23">
-        <f>E87*0.1</f>
+        <f>E87*1</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="H87" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I87" s="14">
+        <v>120</v>
+      </c>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D198,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D88:D195,4)</f>
+        <v>6834</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="28">
-        <v>1001060764993</v>
+        <v>1001203146834</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*0.25</f>
+        <f>E88*0.1</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14">
-        <v>2</v>
-      </c>
-      <c r="I88" s="14">
-        <v>120</v>
-      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
         <f>RIGHT(D89:D199,4)</f>
-        <v>5682</v>
+        <v>4993</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="28">
-        <v>1001193115682</v>
+        <v>1001060764993</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G89" s="23">
-        <f>E89*0.12</f>
+        <f>E89*0.25</f>
         <v>0</v>
       </c>
       <c r="H89" s="14">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="I89" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D202,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D90:D200,4)</f>
+        <v>5682</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>23</v>
+        <v>101</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D90" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G90" s="23">
-        <f>E90*1</f>
+        <f>E90*0.12</f>
         <v>0</v>
       </c>
       <c r="H90" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I90" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
         <f>RIGHT(D91:D203,4)</f>
-        <v>5483</v>
+        <v>4117</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D91" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G91" s="23">
-        <f>E91*0.25</f>
+        <f>E91*1</f>
         <v>0</v>
       </c>
       <c r="H91" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I91" s="14">
         <v>120</v>
       </c>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
         <f>RIGHT(D92:D204,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G92" s="23">
-        <f>E92*0.1</f>
+        <f>E92*0.25</f>
         <v>0</v>
       </c>
       <c r="H92" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I92" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="94" t="str">
         <f>RIGHT(D93:D205,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G93" s="23">
+        <f>E93*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I93" s="14">
+        <v>60</v>
+      </c>
+      <c r="J93" s="39"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="94" t="str">
+        <f>RIGHT(D94:D206,4)</f>
         <v/>
       </c>
-      <c r="B93" s="74" t="s">
+      <c r="B94" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="75"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D209,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23">
-        <f>E94*1</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="39"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="75"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
         <f>RIGHT(D95:D210,4)</f>
-        <v>6865</v>
+        <v>6470</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="80">
-        <v>1001095716865</v>
+        <v>1001092436470</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
@@ -4162,131 +4168,138 @@
       <c r="I95" s="14"/>
       <c r="J95" s="39"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D207,4)</f>
+        <f>RIGHT(D96:D211,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="80">
+        <v>1001095716865</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23">
+        <f>E96*1</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="39"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="94" t="str">
+        <f>RIGHT(D97:D208,4)</f>
         <v>3215</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B97" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C97" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="51">
+      <c r="D97" s="51">
         <v>1001094053215</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23">
+      <c r="E97" s="24"/>
+      <c r="F97" s="23">
         <v>0.4</v>
       </c>
-      <c r="G96" s="23">
-        <f>E96*0.4</f>
+      <c r="G97" s="23">
+        <f>E97*0.4</f>
         <v>0</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H97" s="14">
         <v>3.2</v>
       </c>
-      <c r="I96" s="14">
+      <c r="I97" s="14">
         <v>60</v>
       </c>
-      <c r="J96" s="39"/>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D210,4)</f>
+      <c r="J97" s="39"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="94" t="str">
+        <f>RIGHT(D98:D211,4)</f>
         <v/>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B98" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="75"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D213,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B98" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G98" s="23">
-        <f>E98*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I98" s="14">
-        <v>30</v>
-      </c>
-      <c r="J98" s="39"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="75"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
         <f>RIGHT(D99:D214,4)</f>
-        <v>6919</v>
+        <v>6206</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="28">
-        <v>1001223296919</v>
+        <v>1001084216206</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G99" s="23">
-        <f>E99*0.18</f>
+        <f>E99*0.3</f>
         <v>0</v>
       </c>
-      <c r="H99" s="96"/>
-      <c r="I99" s="96"/>
-      <c r="J99" s="93"/>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H99" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I99" s="14">
+        <v>30</v>
+      </c>
+      <c r="J99" s="39"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="94" t="str">
         <f>RIGHT(D100:D215,4)</f>
-        <v/>
-      </c>
-      <c r="B100" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23">
+        <f>E100*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="93"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D218,4)</f>
+        <f>RIGHT(D101:D216,4)</f>
         <v/>
       </c>
       <c r="B101" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="74"/>
       <c r="D101" s="74"/>
@@ -4297,73 +4310,66 @@
       <c r="I101" s="74"/>
       <c r="J101" s="75"/>
     </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="94" t="str">
         <f>RIGHT(D102:D219,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B102" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G102" s="23">
-        <f>E102*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="14">
-        <v>8</v>
-      </c>
-      <c r="I102" s="72">
-        <v>120</v>
-      </c>
-      <c r="J102" s="39"/>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B102" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="75"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
         <f>RIGHT(D103:D220,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="23"/>
+      <c r="F103" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G103" s="23">
-        <f>E103*0.45</f>
+        <f>E103*0.5</f>
         <v>0</v>
       </c>
-      <c r="H103" s="14"/>
-      <c r="I103" s="72"/>
+      <c r="H103" s="14">
+        <v>8</v>
+      </c>
+      <c r="I103" s="72">
+        <v>120</v>
+      </c>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
         <f>RIGHT(D104:D221,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
@@ -4375,174 +4381,168 @@
       <c r="I104" s="72"/>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f t="shared" ref="A105:A116" si="1">RIGHT(D105:D220,4)</f>
+        <f>RIGHT(D105:D222,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B105" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23">
+        <f>E105*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="14"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="39"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="94" t="str">
+        <f t="shared" ref="A106:A117" si="1">RIGHT(D106:D221,4)</f>
         <v>6313</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B106" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C106" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="28">
+      <c r="D106" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="23">
+      <c r="E106" s="24"/>
+      <c r="F106" s="23">
         <v>0.9</v>
       </c>
-      <c r="G105" s="23">
-        <f>E105*0.9</f>
+      <c r="G106" s="23">
+        <f>E106*0.9</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H106" s="14">
         <v>9</v>
       </c>
-      <c r="I105" s="72">
+      <c r="I106" s="72">
         <v>120</v>
       </c>
-      <c r="J105" s="39"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B106" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="75"/>
+      <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>4945</v>
-      </c>
-      <c r="B107" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G107" s="23">
-        <f>E107*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="14">
-        <v>8</v>
-      </c>
-      <c r="I107" s="72">
-        <v>120</v>
-      </c>
-      <c r="J107" s="39"/>
+        <v/>
+      </c>
+      <c r="B107" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="75"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B108" s="74" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G108" s="23">
+        <f>E108*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="14">
+        <v>8</v>
+      </c>
+      <c r="I108" s="72">
         <v>120</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="75"/>
-    </row>
-    <row r="109" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J108" s="39"/>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>4956</v>
-      </c>
-      <c r="B109" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E109" s="84"/>
-      <c r="F109" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G109" s="85">
-        <f>E109*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I109" s="91">
+        <v/>
+      </c>
+      <c r="B109" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="J109" s="86"/>
-      <c r="K109" s="87"/>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="75"/>
+    </row>
+    <row r="110" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>1762</v>
-      </c>
-      <c r="B110" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="33" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B110" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="23">
+      <c r="D110" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E110" s="84"/>
+      <c r="F110" s="85">
         <v>0.42</v>
       </c>
-      <c r="G110" s="23">
+      <c r="G110" s="85">
         <f>E110*0.42</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H110" s="86">
         <v>4.2</v>
       </c>
-      <c r="I110" s="72">
+      <c r="I110" s="91">
         <v>120</v>
       </c>
-      <c r="J110" s="39"/>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J110" s="86"/>
+      <c r="K110" s="87"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
@@ -4560,22 +4560,35 @@
       </c>
       <c r="J111" s="39"/>
     </row>
-    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="94" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B112" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="75"/>
+        <v>1764</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G112" s="23">
+        <f>E112*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I112" s="72">
+        <v>120</v>
+      </c>
+      <c r="J112" s="39"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="str">
@@ -4583,7 +4596,7 @@
         <v/>
       </c>
       <c r="B113" s="74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -4597,130 +4610,137 @@
     <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6004</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="23">
-        <v>1</v>
-      </c>
-      <c r="G114" s="23">
-        <f>E114*1</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="14">
-        <v>8</v>
-      </c>
-      <c r="I114" s="72">
-        <v>120</v>
-      </c>
-      <c r="J114" s="39"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B114" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="75"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>5417</v>
+        <v>6004</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="D115" s="68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" s="23">
         <f>E115*1</f>
         <v>0</v>
       </c>
       <c r="H115" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I115" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>6019</v>
+        <v>5417</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="69" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="68" t="s">
+        <v>129</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="23">
         <f>E116*1</f>
         <v>0</v>
       </c>
       <c r="H116" s="14">
+        <v>6</v>
+      </c>
+      <c r="I116" s="72">
+        <v>90</v>
+      </c>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6019</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23">
+        <v>1</v>
+      </c>
+      <c r="G117" s="23">
+        <f>E117*1</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="14">
         <v>12</v>
       </c>
-      <c r="I116" s="72">
+      <c r="I117" s="72">
         <v>120</v>
       </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="77"/>
-      <c r="B117" s="77" t="s">
+      <c r="J117" s="39"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="77"/>
+      <c r="B118" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="17">
-        <f>SUM(E5:E116)</f>
+      <c r="C118" s="16"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="17">
+        <f>SUM(E5:E117)</f>
         <v>0</v>
       </c>
-      <c r="F117" s="17">
-        <f>SUM(F10:F116)</f>
-        <v>34.454166666666673</v>
-      </c>
-      <c r="G117" s="17">
-        <f>SUM(G11:G116)</f>
+      <c r="F118" s="17">
+        <f>SUM(F10:F117)</f>
+        <v>34.554166666666674</v>
+      </c>
+      <c r="G118" s="17">
+        <f>SUM(G11:G117)</f>
         <v>0</v>
       </c>
-      <c r="H117" s="17">
-        <f>SUM(H10:H113)</f>
+      <c r="H118" s="17">
+        <f>SUM(H10:H114)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="53"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="52"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="21"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B119" s="53"/>
       <c r="C119" s="18"/>
       <c r="D119" s="52"/>
@@ -19950,17 +19970,27 @@
       <c r="I1641" s="20"/>
       <c r="J1641" s="21"/>
     </row>
+    <row r="1642" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1642" s="53"/>
+      <c r="C1642" s="18"/>
+      <c r="D1642" s="52"/>
+      <c r="F1642" s="19"/>
+      <c r="G1642" s="19"/>
+      <c r="H1642" s="20"/>
+      <c r="I1642" s="20"/>
+      <c r="J1642" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J118" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B110" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B111" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D114:D116" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D115:D117" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD5294B-DDAF-4E16-950B-68F558E87A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C0072D-9794-4990-977D-02BB4F73AE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$120</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="193">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МРАМОРНАЯ в/у срез 0.3кг 6шт_45с</t>
+  </si>
+  <si>
+    <t>МЯСНИКС ПМ сос б/о мгс 1/160 14шт.</t>
+  </si>
+  <si>
+    <t>шт</t>
   </si>
 </sst>
 </file>
@@ -1783,11 +1792,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1642"/>
+  <dimension ref="A1:M1644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
+      <pane ySplit="9" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1941,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D117,4)</f>
+        <f>RIGHT(D11:D119,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1963,7 +1972,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D118,4)</f>
+        <f>RIGHT(D12:D120,4)</f>
         <v>5992</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -1987,7 +1996,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D119,4)</f>
+        <f>RIGHT(D13:D121,4)</f>
         <v>6268</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2011,7 +2020,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D120,4)</f>
+        <f>RIGHT(D14:D122,4)</f>
         <v>6247</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2035,7 +2044,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D120,4)</f>
+        <f>RIGHT(D15:D122,4)</f>
         <v>6325</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2065,7 +2074,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D123,4)</f>
+        <f>RIGHT(D16:D125,4)</f>
         <v>6426</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2089,7 +2098,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D124,4)</f>
+        <f>RIGHT(D17:D126,4)</f>
         <v>4063</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2119,7 +2128,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D125,4)</f>
+        <f>RIGHT(D18:D127,4)</f>
         <v>6333</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2149,7 +2158,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D126,4)</f>
+        <f>RIGHT(D19:D128,4)</f>
         <v>4574</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2179,7 +2188,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D127,4)</f>
+        <f>RIGHT(D20:D129,4)</f>
         <v>6861</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2209,7 +2218,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D131,4)</f>
+        <f>RIGHT(D21:D133,4)</f>
         <v>6862</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2233,7 +2242,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D131,4)</f>
+        <f>RIGHT(D22:D133,4)</f>
         <v>6341</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2257,7 +2266,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D132,4)</f>
+        <f>RIGHT(D23:D134,4)</f>
         <v>6747</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2287,7 +2296,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D135,4)</f>
+        <f>RIGHT(D24:D137,4)</f>
         <v>4813</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2317,7 +2326,7 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D136,4)</f>
+        <f>RIGHT(D25:D138,4)</f>
         <v>6392</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2347,7 +2356,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D138,4)</f>
+        <f>RIGHT(D26:D140,4)</f>
         <v>5851</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2377,7 +2386,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D139,4)</f>
+        <f>RIGHT(D27:D141,4)</f>
         <v>6158</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2405,7 +2414,7 @@
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D141,4)</f>
+        <f>RIGHT(D28:D143,4)</f>
         <v>6340</v>
       </c>
       <c r="B28" s="97" t="s">
@@ -2433,7 +2442,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D139,4)</f>
+        <f>RIGHT(D29:D141,4)</f>
         <v>6353</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2463,7 +2472,7 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D140,4)</f>
+        <f>RIGHT(D30:D142,4)</f>
         <v/>
       </c>
       <c r="B30" s="74" t="s">
@@ -2480,7 +2489,7 @@
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D143,4)</f>
+        <f>RIGHT(D31:D145,4)</f>
         <v>6870</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2505,7 +2514,7 @@
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D143,4)</f>
+        <f>RIGHT(D32:D145,4)</f>
         <v>6602</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2530,7 +2539,7 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D146,4)</f>
+        <f>RIGHT(D33:D148,4)</f>
         <v>6768</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2555,7 +2564,7 @@
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D147,4)</f>
+        <f>RIGHT(D34:D149,4)</f>
         <v>6770</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2580,7 +2589,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D150,4)</f>
+        <f>RIGHT(D35:D152,4)</f>
         <v>6829</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2604,7 +2613,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D155,4)</f>
+        <f>RIGHT(D36:D157,4)</f>
         <v>6854</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2628,7 +2637,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D156,4)</f>
+        <f>RIGHT(D37:D158,4)</f>
         <v>6852</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2652,7 +2661,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D156,4)</f>
+        <f>RIGHT(D38:D158,4)</f>
         <v>6853</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2676,7 +2685,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D157,4)</f>
+        <f>RIGHT(D39:D159,4)</f>
         <v>6759</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2698,157 +2707,158 @@
       <c r="I39" s="14"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D157,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>53</v>
+        <f>RIGHT(D40:D160,4)</f>
+        <v>6901</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="D40" s="28">
-        <v>1001022726303</v>
+        <v>1001025526901</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G40" s="23">
-        <f>E40*1</f>
+        <f>E40*F40</f>
         <v>0</v>
       </c>
-      <c r="H40" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I40" s="14">
-        <v>45</v>
-      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="39"/>
       <c r="K40" s="82"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D158,4)</f>
-        <v>6777</v>
+        <f>RIGHT(D41:D159,4)</f>
+        <v>6303</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D41" s="28">
-        <v>1001025506777</v>
+        <v>1001022726303</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
+      <c r="F41" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G41" s="23">
-        <f>E41*0.4</f>
+        <f>E41*1</f>
         <v>0</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="H41" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I41" s="14">
+        <v>45</v>
+      </c>
       <c r="J41" s="39"/>
       <c r="K41" s="82"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D158,4)</f>
-        <v>6726</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>55</v>
+        <f>RIGHT(D42:D160,4)</f>
+        <v>6777</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="28">
-        <v>1001022466726</v>
+        <v>1001025506777</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="F42" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F42" s="23"/>
       <c r="G42" s="23">
-        <f>E42*0.41</f>
+        <f>E42*0.4</f>
         <v>0</v>
       </c>
-      <c r="H42" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I42" s="14">
-        <v>45</v>
-      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="39"/>
+      <c r="K42" s="82"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D159,4)</f>
-        <v>6762</v>
+        <f>RIGHT(D43:D160,4)</f>
+        <v>6726</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="28">
-        <v>1001020846762</v>
+        <v>1001022466726</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G43" s="23">
-        <f>E43*F43</f>
+        <f>E43*0.41</f>
         <v>0</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="H43" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I43" s="14">
+        <v>45</v>
+      </c>
       <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D159,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D44:D161,4)</f>
+        <v>6762</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D44" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E44" s="24"/>
-      <c r="F44" s="23"/>
+      <c r="F44" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G44" s="23">
-        <f>E44*1</f>
+        <f>E44*F44</f>
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
-      <c r="I44" s="14">
-        <v>45</v>
-      </c>
+      <c r="I44" s="14"/>
       <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
         <f>RIGHT(D45:D161,4)</f>
-        <v>6764</v>
+        <v>5820</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="28">
-        <v>1001020846764</v>
+        <v>1001022465820</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
@@ -2857,22 +2867,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="14">
+        <v>45</v>
+      </c>
       <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
         <f>RIGHT(D46:D163,4)</f>
-        <v>6761</v>
+        <v>6764</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
@@ -2886,17 +2898,17 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D164,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D47:D165,4)</f>
+        <v>6761</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
@@ -2910,22 +2922,22 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D164,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D48:D166,4)</f>
+        <v>6767</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*0.36</f>
+        <f>E48*1</f>
         <v>0</v>
       </c>
       <c r="H48" s="14"/>
@@ -2934,164 +2946,163 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D164,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D49:D166,4)</f>
+        <v>6765</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="28">
-        <v>1001022376722</v>
+        <v>1001023696765</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F49" s="23"/>
       <c r="G49" s="23">
-        <f>E49*0.41</f>
+        <f>E49*0.36</f>
         <v>0</v>
       </c>
-      <c r="H49" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I49" s="14">
-        <v>45</v>
-      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="39"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D165,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D50:D166,4)</f>
+        <v>6722</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="28">
-        <v>1001022556837</v>
+        <v>1001022376722</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G50" s="23">
-        <f>E50*0.4</f>
+        <f>E50*0.41</f>
         <v>0</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="H50" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I50" s="14">
+        <v>45</v>
+      </c>
       <c r="J50" s="39"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D165,4)</f>
-        <v>3812</v>
+        <f>RIGHT(D51:D167,4)</f>
+        <v>6837</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D51" s="28">
-        <v>1001022373812</v>
+        <v>1001022556837</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23">
-        <v>2.125</v>
+        <v>0.4</v>
       </c>
       <c r="G51" s="23">
-        <f>E51*1</f>
+        <f>E51*0.4</f>
         <v>0</v>
       </c>
-      <c r="H51" s="14">
-        <v>4.25</v>
-      </c>
-      <c r="I51" s="14">
-        <v>45</v>
-      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="39"/>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D166,4)</f>
-        <v>6113</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>65</v>
+        <f>RIGHT(D52:D167,4)</f>
+        <v>3812</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="28">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23">
-        <v>1.033333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="G52" s="23">
         <f>E52*1</f>
         <v>0</v>
       </c>
       <c r="H52" s="14">
-        <v>6.2000000000000011</v>
+        <v>4.25</v>
       </c>
       <c r="I52" s="14">
         <v>45</v>
       </c>
       <c r="J52" s="39"/>
-      <c r="K52" s="82"/>
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D167,4)</f>
-        <v>6661</v>
+        <f>RIGHT(D53:D168,4)</f>
+        <v>6113</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="23">
+        <v>1.033333333333333</v>
+      </c>
       <c r="G53" s="23">
         <f>E53*1</f>
         <v>0</v>
       </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="H53" s="14">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="I53" s="14">
+        <v>45</v>
+      </c>
       <c r="J53" s="39"/>
       <c r="K53" s="82"/>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D168,4)</f>
-        <v>6713</v>
+        <f>RIGHT(D54:D169,4)</f>
+        <v>6661</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23">
-        <f>E54*0.41</f>
+        <f>E54*1</f>
         <v>0</v>
       </c>
       <c r="H54" s="14"/>
@@ -3099,215 +3110,216 @@
       <c r="J54" s="39"/>
       <c r="K54" s="82"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D164,4)</f>
+        <f>RIGHT(D55:D170,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23">
+        <f>E55*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="82"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="94" t="str">
+        <f>RIGHT(D56:D166,4)</f>
         <v/>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B56" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="75"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D165,4)</f>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="75"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="94" t="str">
+        <f>RIGHT(D57:D167,4)</f>
         <v>5698</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B57" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C57" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D57" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23">
+      <c r="E57" s="24"/>
+      <c r="F57" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G56" s="23">
-        <f>E56*1</f>
+      <c r="G57" s="23">
+        <f>E57*1</f>
         <v>0</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>3.04</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>30</v>
       </c>
-      <c r="J56" s="39"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D168,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23">
-        <f>E57*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
         <f>RIGHT(D58:D170,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="28">
+        <v>1001031076528</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23">
+        <f>E58*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="39"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="94" t="str">
+        <f t="shared" ref="A59:A64" si="0">RIGHT(D59:D172,4)</f>
         <v>6527</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B59" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C59" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D59" s="28">
         <v>1001031076527</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="23">
+      <c r="E59" s="24"/>
+      <c r="F59" s="23">
         <v>1.0166666666666671</v>
       </c>
-      <c r="G58" s="23">
-        <f>E58*1</f>
+      <c r="G59" s="23">
+        <f>E59*1</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>3.05</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>30</v>
       </c>
-      <c r="J58" s="39"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D171,4)</f>
+      <c r="J59" s="39"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="94" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B60" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="75"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D172,4)</f>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="75"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="94" t="str">
+        <f t="shared" si="0"/>
         <v>6666</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B61" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="28">
-        <v>1001302276666</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G60" s="23">
-        <f>E60*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I60" s="14">
-        <v>45</v>
-      </c>
-      <c r="J60" s="39"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D173,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="28">
-        <v>1001300516785</v>
+        <v>1001302276666</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G61" s="23">
-        <f>E61*0.33</f>
+        <f>E61*0.28</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="H61" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I61" s="14">
+        <v>45</v>
+      </c>
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D174,4)</f>
-        <v>6786</v>
+        <f t="shared" si="0"/>
+        <v>6785</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D62" s="28">
-        <v>1001300516786</v>
+        <v>1001300516785</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23">
-        <f>E62</f>
+        <f>E62*0.33</f>
         <v>0</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D175,4)</f>
-        <v>6794</v>
+        <f t="shared" si="0"/>
+        <v>6786</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001303636794</v>
+        <v>1001300516786</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
@@ -3316,126 +3328,126 @@
         <v>0</v>
       </c>
       <c r="H63" s="14"/>
-      <c r="I63" s="14">
-        <v>45</v>
-      </c>
+      <c r="I63" s="14"/>
       <c r="J63" s="39"/>
-      <c r="K63" s="82"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D173,4)</f>
-        <v>6773</v>
+        <f t="shared" si="0"/>
+        <v>6794</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001303106773</v>
+        <v>1001303636794</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*0.28</f>
+        <f>E64</f>
         <v>0</v>
       </c>
-      <c r="H64" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="14">
         <v>45</v>
       </c>
       <c r="J64" s="39"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K64" s="82"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D176,4)</f>
+        <f>RIGHT(D65:D175,4)</f>
+        <v>6773</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1001303106773</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G65" s="23">
+        <f>E65*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I65" s="14">
+        <v>45</v>
+      </c>
+      <c r="J65" s="39"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="94" t="str">
+        <f>RIGHT(D66:D178,4)</f>
         <v/>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B66" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="75"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D177,4)</f>
-        <v>6683</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="28">
-        <v>1001300386683</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G66" s="23">
-        <f>E66*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I66" s="14">
-        <v>45</v>
-      </c>
-      <c r="J66" s="39"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="75"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
         <f>RIGHT(D67:D179,4)</f>
-        <v>6793</v>
+        <v>6683</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>1001303636793</v>
+        <v>1001300386683</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
+      <c r="F67" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G67" s="23">
-        <f>E67*0.33</f>
+        <f>E67*0.35</f>
         <v>0</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="H67" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I67" s="14">
+        <v>45</v>
+      </c>
       <c r="J67" s="39"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D180,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D68:D181,4)</f>
+        <v>6793</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23"/>
@@ -3449,17 +3461,17 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D180,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D69:D182,4)</f>
+        <v>6795</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
@@ -3473,76 +3485,76 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D180,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D70:D182,4)</f>
+        <v>6807</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F70" s="23"/>
       <c r="G70" s="23">
-        <f>E70*0.28</f>
+        <f>E70*0.33</f>
         <v>0</v>
       </c>
-      <c r="H70" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I70" s="14">
-        <v>45</v>
-      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
         <f>RIGHT(D71:D182,4)</f>
-        <v>6787</v>
+        <v>6684</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="28">
-        <v>1001300456787</v>
+        <v>1001304506684</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="23"/>
+      <c r="F71" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G71" s="23">
-        <f>E71*0.33</f>
+        <f>E71*0.28</f>
         <v>0</v>
       </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="H71" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I71" s="14">
+        <v>45</v>
+      </c>
       <c r="J71" s="39"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D183,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D72:D184,4)</f>
+        <v>6787</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D72" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23">
-        <f>E72*1</f>
+        <f>E72*0.33</f>
         <v>0</v>
       </c>
       <c r="H72" s="14"/>
@@ -3551,17 +3563,17 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D184,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D73:D185,4)</f>
+        <v>6788</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23"/>
@@ -3575,152 +3587,152 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D183,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B74" s="64" t="s">
-        <v>86</v>
+        <f>RIGHT(D74:D186,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D74" s="28">
-        <v>1001303986689</v>
+        <v>1001300366790</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F74" s="23"/>
       <c r="G74" s="23">
-        <f>E74*0.35</f>
+        <f>E74*1</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I74" s="14">
-        <v>45</v>
-      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D184,4)</f>
-        <v>6791</v>
+        <f>RIGHT(D75:D185,4)</f>
+        <v>6689</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="28">
-        <v>1001304096791</v>
+        <v>1001303986689</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
+      <c r="F75" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G75" s="23">
-        <f>E75*0.33</f>
+        <f>E75*0.35</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="H75" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I75" s="14">
+        <v>45</v>
+      </c>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D185,4)</f>
+        <f>RIGHT(D76:D186,4)</f>
+        <v>6791</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="28">
+        <v>1001304096791</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23">
+        <f>E76*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="39"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="94" t="str">
+        <f>RIGHT(D77:D187,4)</f>
         <v>5341</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B77" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C77" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D77" s="28">
         <v>1001053985341</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="G76" s="23">
-        <f>E76*1</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I76" s="14">
-        <v>45</v>
-      </c>
-      <c r="J76" s="39"/>
-    </row>
-    <row r="77" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D186,4)</f>
-        <v>6459</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="28">
-        <v>1001214196459</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23">
-        <v>0.1</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G77" s="23">
-        <f>E77*F77</f>
+        <f>E77*1</f>
         <v>0</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
+      <c r="H77" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I77" s="14">
+        <v>45</v>
+      </c>
       <c r="J77" s="39"/>
-      <c r="K77" s="82"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D187,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D78:D188,4)</f>
+        <v>6459</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="23"/>
+      <c r="F78" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G78" s="23">
-        <f>E78*0.09</f>
+        <f>E78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="39"/>
+      <c r="K78" s="82"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D185,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D79:D189,4)</f>
+        <v>6586</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
@@ -3734,219 +3746,213 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D185,4)</f>
+        <f>RIGHT(D80:D187,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23">
+        <f>E80*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="39"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="94" t="str">
+        <f>RIGHT(D81:D187,4)</f>
         <v>5544</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B81" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C81" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D81" s="28">
         <v>1001051875544</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G80" s="23">
-        <f>E80*1</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I80" s="14">
-        <v>45</v>
-      </c>
-      <c r="J80" s="39"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="94" t="str">
-        <f t="shared" ref="A81:A86" si="0">RIGHT(D81:D187,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="28">
-        <v>1001301876697</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G81" s="23">
-        <f>E81*0.35</f>
+        <f>E81*1</f>
         <v>0</v>
       </c>
       <c r="H81" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I81" s="14">
         <v>45</v>
       </c>
       <c r="J81" s="39"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A82:A87" si="1">RIGHT(D82:D189,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G82" s="23">
+        <f>E82*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I82" s="14">
+        <v>45</v>
+      </c>
+      <c r="J82" s="39"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="94" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B82" s="74" t="s">
+      <c r="B83" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="75"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94" t="str">
-        <f t="shared" si="0"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="75"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="94" t="str">
+        <f t="shared" si="1"/>
         <v>5706</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B84" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G83" s="23">
-        <f>E83*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="14">
-        <v>2</v>
-      </c>
-      <c r="I83" s="14">
-        <v>120</v>
-      </c>
-      <c r="J83" s="39"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G84" s="23">
-        <f>E84*0.1</f>
+        <f>E84*0.25</f>
         <v>0</v>
       </c>
       <c r="H84" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I84" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6222</v>
+        <f t="shared" si="1"/>
+        <v>6454</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G85" s="23">
-        <f>E85*0.09</f>
+        <f>E85*0.1</f>
         <v>0</v>
       </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="H85" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I85" s="14">
+        <v>60</v>
+      </c>
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>5931</v>
+        <f t="shared" si="1"/>
+        <v>6222</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="23">
-        <f>E86*0.22</f>
+        <f>E86*0.09</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I86" s="14">
-        <v>120</v>
-      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D194,4)</f>
-        <v>5708</v>
+        <f t="shared" si="1"/>
+        <v>5931</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>23</v>
+        <v>97</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D87" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G87" s="23">
-        <f>E87*1</f>
+        <f>E87*0.22</f>
         <v>0</v>
       </c>
       <c r="H87" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I87" s="14">
         <v>120</v>
@@ -3955,232 +3961,238 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D195,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D88:D196,4)</f>
+        <v>5708</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D88" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G88" s="23">
-        <f>E88*0.1</f>
+        <f>E88*1</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="H88" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I88" s="14">
+        <v>120</v>
+      </c>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D199,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D89:D197,4)</f>
+        <v>6834</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="28">
-        <v>1001060764993</v>
+        <v>1001203146834</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F89" s="23"/>
       <c r="G89" s="23">
-        <f>E89*0.25</f>
+        <f>E89*0.1</f>
         <v>0</v>
       </c>
-      <c r="H89" s="14">
-        <v>2</v>
-      </c>
-      <c r="I89" s="14">
-        <v>120</v>
-      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D200,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D90:D201,4)</f>
+        <v>4993</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="28">
-        <v>1001193115682</v>
+        <v>1001060764993</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G90" s="23">
-        <f>E90*0.12</f>
+        <f>E90*0.25</f>
         <v>0</v>
       </c>
       <c r="H90" s="14">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="I90" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D203,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D91:D202,4)</f>
+        <v>5682</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>23</v>
+        <v>101</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D91" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G91" s="23">
-        <f>E91*1</f>
+        <f>E91*0.12</f>
         <v>0</v>
       </c>
       <c r="H91" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I91" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D204,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D92:D205,4)</f>
+        <v>4117</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D92" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G92" s="23">
-        <f>E92*0.25</f>
+        <f>E92*1</f>
         <v>0</v>
       </c>
       <c r="H92" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I92" s="14">
         <v>120</v>
       </c>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D205,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D93:D206,4)</f>
+        <v>5483</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="23">
+        <f>E93*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>2</v>
+      </c>
+      <c r="I93" s="14">
+        <v>120</v>
+      </c>
+      <c r="J93" s="39"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="94" t="str">
+        <f>RIGHT(D94:D207,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23">
         <v>0.1</v>
       </c>
-      <c r="G93" s="23">
-        <f>E93*0.1</f>
+      <c r="G94" s="23">
+        <f>E94*0.1</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H94" s="14">
         <v>0.8</v>
       </c>
-      <c r="I93" s="14">
+      <c r="I94" s="14">
         <v>60</v>
       </c>
-      <c r="J93" s="39"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D206,4)</f>
+      <c r="J94" s="39"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="94" t="str">
+        <f>RIGHT(D95:D208,4)</f>
         <v/>
       </c>
-      <c r="B94" s="74" t="s">
+      <c r="B95" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="74"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="75"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D210,4)</f>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="75"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="94" t="str">
+        <f>RIGHT(D96:D212,4)</f>
         <v>6470</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B96" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23">
-        <f>E95*1</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="39"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D211,4)</f>
-        <v>6865</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="80">
-        <v>1001095716865</v>
+        <v>1001092436470</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
@@ -4192,290 +4204,294 @@
       <c r="I96" s="14"/>
       <c r="J96" s="39"/>
     </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D208,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="37" t="s">
+        <f>RIGHT(D97:D213,4)</f>
+        <v>6495</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="51">
-        <v>1001094053215</v>
+      <c r="D97" s="80">
+        <v>1001092436495</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G97" s="23">
-        <f>E97*0.4</f>
+        <f>F97*E97</f>
         <v>0</v>
       </c>
-      <c r="H97" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I97" s="14">
-        <v>60</v>
-      </c>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
       <c r="J97" s="39"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K97" s="82"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D211,4)</f>
-        <v/>
-      </c>
-      <c r="B98" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="74"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="75"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D98:D213,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="80">
+        <v>1001095716865</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23">
+        <f>E98*1</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="39"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D214,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B99" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="35" t="s">
+        <f>RIGHT(D99:D210,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="28">
-        <v>1001084216206</v>
+      <c r="D99" s="51">
+        <v>1001094053215</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G99" s="23">
-        <f>E99*0.3</f>
+        <f>E99*0.4</f>
         <v>0</v>
       </c>
       <c r="H99" s="14">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="I99" s="14">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J99" s="39"/>
     </row>
-    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D215,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B100" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="28">
-        <v>1001223296919</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23">
-        <f>E100*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="96"/>
-      <c r="I100" s="96"/>
-      <c r="J100" s="93"/>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D100:D213,4)</f>
+        <v/>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="75"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
         <f>RIGHT(D101:D216,4)</f>
+        <v>6206</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="28">
+        <v>1001084216206</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G101" s="23">
+        <f>E101*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I101" s="14">
+        <v>30</v>
+      </c>
+      <c r="J101" s="39"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="94" t="str">
+        <f>RIGHT(D102:D217,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23">
+        <f>E102*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="93"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="94" t="str">
+        <f>RIGHT(D103:D218,4)</f>
         <v/>
       </c>
-      <c r="B101" s="74" t="s">
+      <c r="B103" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="75"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D219,4)</f>
-        <v/>
-      </c>
-      <c r="B102" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="75"/>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D220,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G103" s="23">
-        <f>E103*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="14">
-        <v>8</v>
-      </c>
-      <c r="I103" s="72">
-        <v>120</v>
-      </c>
-      <c r="J103" s="39"/>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="75"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="94" t="str">
         <f>RIGHT(D104:D221,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B104" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23">
-        <f>E104*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="14"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="39"/>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B104" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="75"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
         <f>RIGHT(D105:D222,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G105" s="23">
+        <f>E105*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <v>8</v>
+      </c>
+      <c r="I105" s="72">
+        <v>120</v>
+      </c>
+      <c r="J105" s="39"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="94" t="str">
+        <f>RIGHT(D106:D223,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23">
+        <f>E106*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="14"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="39"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="94" t="str">
+        <f>RIGHT(D107:D224,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23">
-        <f>E105*0.45</f>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23">
+        <f>E107*0.45</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="39"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="94" t="str">
-        <f t="shared" ref="A106:A117" si="1">RIGHT(D106:D221,4)</f>
+      <c r="H107" s="14"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="39"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="94" t="str">
+        <f t="shared" ref="A108:A119" si="2">RIGHT(D108:D223,4)</f>
         <v>6313</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B108" s="47" t="s">
         <v>117</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G106" s="23">
-        <f>E106*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="14">
-        <v>9</v>
-      </c>
-      <c r="I106" s="72">
-        <v>120</v>
-      </c>
-      <c r="J106" s="39"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B107" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="75"/>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>4945</v>
-      </c>
-      <c r="B108" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="C108" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G108" s="23">
-        <f>E108*0.5</f>
+        <f>E108*0.9</f>
         <v>0</v>
       </c>
       <c r="H108" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I108" s="72">
         <v>120</v>
@@ -4484,11 +4500,11 @@
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B109" s="74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C109" s="74"/>
       <c r="D109" s="74"/>
@@ -4499,204 +4515,191 @@
       <c r="I109" s="74"/>
       <c r="J109" s="75"/>
     </row>
-    <row r="110" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>4945</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="23">
+        <f>E110*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="14">
+        <v>8</v>
+      </c>
+      <c r="I110" s="72">
+        <v>120</v>
+      </c>
+      <c r="J110" s="39"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B111" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="75"/>
+    </row>
+    <row r="112" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>4956</v>
       </c>
-      <c r="B110" s="89" t="s">
+      <c r="B112" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="90" t="s">
+      <c r="C112" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="83">
+      <c r="D112" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E110" s="84"/>
-      <c r="F110" s="85">
+      <c r="E112" s="84"/>
+      <c r="F112" s="85">
         <v>0.42</v>
       </c>
-      <c r="G110" s="85">
-        <f>E110*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I110" s="91">
-        <v>120</v>
-      </c>
-      <c r="J110" s="86"/>
-      <c r="K110" s="87"/>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1762</v>
-      </c>
-      <c r="B111" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G111" s="23">
-        <f>E111*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I111" s="72">
-        <v>120</v>
-      </c>
-      <c r="J111" s="39"/>
-    </row>
-    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1764</v>
-      </c>
-      <c r="B112" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G112" s="23">
+      <c r="G112" s="85">
         <f>E112*0.42</f>
         <v>0</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="86">
         <v>4.2</v>
       </c>
-      <c r="I112" s="72">
+      <c r="I112" s="91">
         <v>120</v>
       </c>
-      <c r="J112" s="39"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J112" s="86"/>
+      <c r="K112" s="87"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B113" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="75"/>
-    </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1762</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G113" s="23">
+        <f>E113*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I113" s="72">
+        <v>120</v>
+      </c>
+      <c r="J113" s="39"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B114" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="75"/>
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G114" s="23">
+        <f>E114*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I114" s="72">
+        <v>120</v>
+      </c>
+      <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B115" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="75"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="74"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="75"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="94" t="str">
+        <f t="shared" si="2"/>
         <v>6004</v>
       </c>
-      <c r="B115" s="47" t="s">
+      <c r="B117" s="47" t="s">
         <v>126</v>
-      </c>
-      <c r="C115" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="23">
-        <v>1</v>
-      </c>
-      <c r="G115" s="23">
-        <f>E115*1</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="14">
-        <v>8</v>
-      </c>
-      <c r="I115" s="72">
-        <v>120</v>
-      </c>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5417</v>
-      </c>
-      <c r="B116" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23">
-        <v>2</v>
-      </c>
-      <c r="G116" s="23">
-        <f>E116*1</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="14">
-        <v>6</v>
-      </c>
-      <c r="I116" s="72">
-        <v>90</v>
-      </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6019</v>
-      </c>
-      <c r="B117" s="47" t="s">
-        <v>130</v>
       </c>
       <c r="C117" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="69" t="s">
-        <v>131</v>
+      <c r="D117" s="68" t="s">
+        <v>127</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
@@ -4707,60 +4710,100 @@
         <v>0</v>
       </c>
       <c r="H117" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I117" s="72">
         <v>120</v>
       </c>
       <c r="J117" s="39"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="77"/>
-      <c r="B118" s="77" t="s">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>5417</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23">
+        <v>2</v>
+      </c>
+      <c r="G118" s="23">
+        <f>E118*1</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>6</v>
+      </c>
+      <c r="I118" s="72">
+        <v>90</v>
+      </c>
+      <c r="J118" s="39"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23">
+        <v>1</v>
+      </c>
+      <c r="G119" s="23">
+        <f>E119*1</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <v>12</v>
+      </c>
+      <c r="I119" s="72">
+        <v>120</v>
+      </c>
+      <c r="J119" s="39"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="77"/>
+      <c r="B120" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="17">
-        <f>SUM(E5:E117)</f>
+      <c r="C120" s="16"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="17">
+        <f>SUM(E5:E119)</f>
         <v>0</v>
       </c>
-      <c r="F118" s="17">
-        <f>SUM(F10:F117)</f>
-        <v>34.554166666666674</v>
-      </c>
-      <c r="G118" s="17">
-        <f>SUM(G11:G117)</f>
+      <c r="F120" s="17">
+        <f>SUM(F10:F119)</f>
+        <v>35.014166666666675</v>
+      </c>
+      <c r="G120" s="17">
+        <f>SUM(G11:G119)</f>
         <v>0</v>
       </c>
-      <c r="H118" s="17">
-        <f>SUM(H10:H114)</f>
+      <c r="H120" s="17">
+        <f>SUM(H10:H116)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="53"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="52"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="21"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="53"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="52"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="21"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B121" s="53"/>
       <c r="C121" s="18"/>
       <c r="D121" s="52"/>
@@ -19980,17 +20023,37 @@
       <c r="I1642" s="20"/>
       <c r="J1642" s="21"/>
     </row>
+    <row r="1643" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1643" s="53"/>
+      <c r="C1643" s="18"/>
+      <c r="D1643" s="52"/>
+      <c r="F1643" s="19"/>
+      <c r="G1643" s="19"/>
+      <c r="H1643" s="20"/>
+      <c r="I1643" s="20"/>
+      <c r="J1643" s="21"/>
+    </row>
+    <row r="1644" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1644" s="53"/>
+      <c r="C1644" s="18"/>
+      <c r="D1644" s="52"/>
+      <c r="F1644" s="19"/>
+      <c r="G1644" s="19"/>
+      <c r="H1644" s="20"/>
+      <c r="I1644" s="20"/>
+      <c r="J1644" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J118" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B111" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B113" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D115:D117" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D117:D119" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 06,08,24ц-выезд 08,08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C0072D-9794-4990-977D-02BB4F73AE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B88E75-6367-4E14-8E4D-5760DBDB4D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$122</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>шт</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1792,11 +1798,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1644"/>
+  <dimension ref="A1:M1646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L124" sqref="L124"/>
+      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1947,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D119,4)</f>
+        <f>RIGHT(D11:D121,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1972,7 +1978,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D120,4)</f>
+        <f>RIGHT(D12:D122,4)</f>
         <v>5992</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -1996,7 +2002,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D121,4)</f>
+        <f>RIGHT(D13:D123,4)</f>
         <v>6268</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2020,7 +2026,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D122,4)</f>
+        <f>RIGHT(D14:D124,4)</f>
         <v>6247</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2044,7 +2050,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D122,4)</f>
+        <f>RIGHT(D15:D124,4)</f>
         <v>6325</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2072,84 +2078,81 @@
       </c>
       <c r="J15" s="39"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
         <f>RIGHT(D16:D125,4)</f>
-        <v>6426</v>
+        <v>6324</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="28">
-        <v>1001013956426</v>
+        <v>1001010016324</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G16" s="23">
-        <f>E16*0.3</f>
+        <f>F16*E16</f>
         <v>0</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="39"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D126,4)</f>
-        <v>4063</v>
+        <f>RIGHT(D17:D127,4)</f>
+        <v>6426</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="28">
-        <v>1001012484063</v>
+        <v>1001013956426</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="23">
-        <f>E17*1</f>
+        <f>E17*0.3</f>
         <v>0</v>
       </c>
-      <c r="H17" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I17" s="14">
-        <v>60</v>
-      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D127,4)</f>
-        <v>6333</v>
+        <f>RIGHT(D18:D128,4)</f>
+        <v>4063</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="28">
-        <v>1001012486333</v>
+        <v>1001012484063</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G18" s="23">
-        <f>E18*0.4</f>
+        <f>E18*1</f>
         <v>0</v>
       </c>
       <c r="H18" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I18" s="14">
         <v>60</v>
@@ -2158,28 +2161,28 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D128,4)</f>
-        <v>4574</v>
+        <f>RIGHT(D19:D129,4)</f>
+        <v>6333</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="28">
-        <v>1001012634574</v>
+        <v>1001012486333</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G19" s="23">
-        <f>E19*1</f>
+        <f>E19*0.4</f>
         <v>0</v>
       </c>
       <c r="H19" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I19" s="14">
         <v>60</v>
@@ -2188,28 +2191,28 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D129,4)</f>
-        <v>6861</v>
+        <f>RIGHT(D20:D130,4)</f>
+        <v>4574</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="28">
-        <v>1001015646861</v>
+        <v>1001012634574</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23">
-        <v>2</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G20" s="23">
         <f>E20*1</f>
         <v>0</v>
       </c>
       <c r="H20" s="14">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I20" s="14">
         <v>60</v>
@@ -2218,46 +2221,52 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D133,4)</f>
-        <v>6862</v>
+        <f>RIGHT(D21:D131,4)</f>
+        <v>6861</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="28">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23">
+        <v>2</v>
+      </c>
       <c r="G21" s="23">
         <f>E21*1</f>
         <v>0</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="14">
+        <v>4</v>
+      </c>
+      <c r="I21" s="14">
+        <v>60</v>
+      </c>
       <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D133,4)</f>
-        <v>6341</v>
+        <f>RIGHT(D22:D135,4)</f>
+        <v>6862</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D22" s="28">
-        <v>1001012816341</v>
+        <v>1001015706862</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23">
-        <f>E22*0.5</f>
+        <f>E22*1</f>
         <v>0</v>
       </c>
       <c r="H22" s="14"/>
@@ -2266,88 +2275,82 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D134,4)</f>
-        <v>6747</v>
+        <f>RIGHT(D23:D135,4)</f>
+        <v>6341</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="28">
-        <v>1001010856747</v>
+        <v>1001012816341</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="23">
-        <v>1.48</v>
-      </c>
+      <c r="F23" s="23"/>
       <c r="G23" s="23">
-        <f>E23*1</f>
+        <f>E23*0.5</f>
         <v>0</v>
       </c>
-      <c r="H23" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="I23" s="14">
-        <v>45</v>
-      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D137,4)</f>
-        <v>4813</v>
+        <f>RIGHT(D24:D136,4)</f>
+        <v>6747</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="28">
-        <v>1001012564813</v>
+        <v>1001010856747</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="23">
-        <v>1.366666666666666</v>
+        <v>1.48</v>
       </c>
       <c r="G24" s="23">
         <f>E24*1</f>
         <v>0</v>
       </c>
       <c r="H24" s="14">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="I24" s="14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D138,4)</f>
-        <v>6392</v>
+        <f>RIGHT(D25:D139,4)</f>
+        <v>4813</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="28">
-        <v>1001012566392</v>
+        <v>1001012564813</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G25" s="23">
-        <f>E25*0.4</f>
+        <f>E25*1</f>
         <v>0</v>
       </c>
       <c r="H25" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I25" s="14">
         <v>60</v>
@@ -2357,27 +2360,27 @@
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
         <f>RIGHT(D26:D140,4)</f>
-        <v>5851</v>
+        <v>6392</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="28">
-        <v>1001012505851</v>
+        <v>1001012566392</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G26" s="23">
-        <f>E26*1</f>
+        <f>E26*0.4</f>
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I26" s="14">
         <v>60</v>
@@ -2386,27 +2389,29 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D141,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D27:D142,4)</f>
+        <v>5851</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="28">
-        <v>1001014486158</v>
+        <v>1001012505851</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G27" s="23">
-        <f>E27*0.4</f>
+        <f>E27*1</f>
         <v>0</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I27" s="14">
         <v>60</v>
       </c>
@@ -2415,23 +2420,23 @@
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
         <f>RIGHT(D28:D143,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>41</v>
+        <v>6158</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28">
-        <v>1001012816340</v>
+        <v>1001014486158</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="23">
-        <f>E28*0.5</f>
+        <f>E28*0.4</f>
         <v>0</v>
       </c>
       <c r="H28" s="14"/>
@@ -2440,96 +2445,99 @@
       </c>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D141,4)</f>
-        <v>6353</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>42</v>
+        <f>RIGHT(D29:D145,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="28">
-        <v>1001012506353</v>
+        <v>1001012816340</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="23">
-        <f>E29*0.4</f>
+        <f>E29*0.5</f>
         <v>0</v>
       </c>
-      <c r="H29" s="14">
-        <v>3.2</v>
-      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="14">
         <v>60</v>
       </c>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D142,4)</f>
+        <f>RIGHT(D30:D143,4)</f>
+        <v>6353</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="28">
+        <v>1001012506353</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="23">
+        <f>E30*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I30" s="14">
+        <v>60</v>
+      </c>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="94" t="str">
+        <f>RIGHT(D31:D144,4)</f>
         <v/>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B31" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D145,4)</f>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="94" t="str">
+        <f>RIGHT(D32:D147,4)</f>
         <v>6870</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B32" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D32" s="28">
         <v>1001023856870</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23">
-        <f>E31*1</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="82"/>
-    </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D145,4)</f>
-        <v>6602</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="28">
-        <v>1001021966602</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23">
-        <f>E32*0.35</f>
+        <f>E32*1</f>
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
@@ -2539,22 +2547,22 @@
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D148,4)</f>
-        <v>6768</v>
+        <f>RIGHT(D33:D147,4)</f>
+        <v>6602</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="28">
-        <v>1001025176768</v>
+        <v>1001021966602</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23">
-        <f>E33*0.41</f>
+        <f>E33*0.35</f>
         <v>0</v>
       </c>
       <c r="H33" s="14"/>
@@ -2564,17 +2572,17 @@
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D149,4)</f>
-        <v>6770</v>
+        <f>RIGHT(D34:D150,4)</f>
+        <v>6768</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="28">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="23"/>
@@ -2587,48 +2595,49 @@
       <c r="J34" s="39"/>
       <c r="K34" s="82"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D152,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D35:D151,4)</f>
+        <v>6770</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D35" s="28">
-        <v>1001024976829</v>
+        <v>1001025486770</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23">
-        <f>E35*1</f>
+        <f>E35*0.41</f>
         <v>0</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="39"/>
+      <c r="K35" s="82"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D157,4)</f>
-        <v>6854</v>
+        <f>RIGHT(D36:D154,4)</f>
+        <v>6829</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D36" s="28">
-        <v>1001022656854</v>
+        <v>1001024976829</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23">
-        <f>E36*0.6</f>
+        <f>E36*1</f>
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
@@ -2637,22 +2646,22 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D158,4)</f>
-        <v>6852</v>
+        <f>RIGHT(D37:D159,4)</f>
+        <v>6854</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="28">
-        <v>1001022656852</v>
+        <v>1001022656854</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23">
-        <f>E37*0.35</f>
+        <f>E37*0.6</f>
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
@@ -2661,22 +2670,22 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D158,4)</f>
-        <v>6853</v>
+        <f>RIGHT(D38:D160,4)</f>
+        <v>6852</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="28">
-        <v>1001022656853</v>
+        <v>1001022656852</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23">
-        <f>E38*1</f>
+        <f>E38*0.35</f>
         <v>0</v>
       </c>
       <c r="H38" s="14"/>
@@ -2685,206 +2694,204 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D159,4)</f>
-        <v>6759</v>
+        <f>RIGHT(D39:D160,4)</f>
+        <v>6853</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="28">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23">
-        <f>E39*0.4</f>
+        <f>E39*1</f>
         <v>0</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D160,4)</f>
-        <v>6901</v>
+        <f>RIGHT(D40:D161,4)</f>
+        <v>6759</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="D40" s="28">
-        <v>1001025526901</v>
+        <v>1001020836759</v>
       </c>
       <c r="E40" s="24"/>
-      <c r="F40" s="23">
-        <v>0.16</v>
-      </c>
+      <c r="F40" s="23"/>
       <c r="G40" s="23">
-        <f>E40*F40</f>
+        <f>E40*0.4</f>
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="82"/>
-    </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D159,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>53</v>
+        <f>RIGHT(D41:D162,4)</f>
+        <v>6901</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="D41" s="28">
-        <v>1001022726303</v>
+        <v>1001025526901</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G41" s="23">
-        <f>E41*1</f>
+        <f>E41*F41</f>
         <v>0</v>
       </c>
-      <c r="H41" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I41" s="14">
-        <v>45</v>
-      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="39"/>
       <c r="K41" s="82"/>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D160,4)</f>
-        <v>6777</v>
+        <f>RIGHT(D42:D161,4)</f>
+        <v>6303</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D42" s="28">
-        <v>1001025506777</v>
+        <v>1001022726303</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="F42" s="23"/>
+      <c r="F42" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G42" s="23">
-        <f>E42*0.4</f>
+        <f>E42*1</f>
         <v>0</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="H42" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I42" s="14">
+        <v>45</v>
+      </c>
       <c r="J42" s="39"/>
       <c r="K42" s="82"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D160,4)</f>
-        <v>6726</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>55</v>
+        <f>RIGHT(D43:D162,4)</f>
+        <v>6777</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="28">
-        <v>1001022466726</v>
+        <v>1001025506777</v>
       </c>
       <c r="E43" s="24"/>
-      <c r="F43" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>E43*0.41</f>
+        <f>E43*0.4</f>
         <v>0</v>
       </c>
-      <c r="H43" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I43" s="14">
-        <v>45</v>
-      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="39"/>
+      <c r="K43" s="82"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D161,4)</f>
-        <v>6762</v>
+        <f>RIGHT(D44:D162,4)</f>
+        <v>6726</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="28">
-        <v>1001020846762</v>
+        <v>1001022466726</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G44" s="23">
-        <f>E44*F44</f>
+        <f>E44*0.41</f>
         <v>0</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="H44" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I44" s="14">
+        <v>45</v>
+      </c>
       <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D161,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D45:D163,4)</f>
+        <v>6762</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D45" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E45" s="24"/>
-      <c r="F45" s="23"/>
+      <c r="F45" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G45" s="23">
-        <f>E45*1</f>
+        <f>E45*F45</f>
         <v>0</v>
       </c>
       <c r="H45" s="14"/>
-      <c r="I45" s="14">
-        <v>45</v>
-      </c>
+      <c r="I45" s="14"/>
       <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
         <f>RIGHT(D46:D163,4)</f>
-        <v>6764</v>
+        <v>5820</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="28">
-        <v>1001020846764</v>
+        <v>1001022465820</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
@@ -2893,22 +2900,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="14">
+        <v>45</v>
+      </c>
       <c r="J46" s="39"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
         <f>RIGHT(D47:D165,4)</f>
-        <v>6761</v>
+        <v>6764</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
@@ -2922,17 +2931,17 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D166,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D48:D167,4)</f>
+        <v>6761</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
@@ -2946,22 +2955,22 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D166,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D49:D168,4)</f>
+        <v>6767</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D49" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23">
-        <f>E49*0.36</f>
+        <f>E49*1</f>
         <v>0</v>
       </c>
       <c r="H49" s="14"/>
@@ -2970,532 +2979,535 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D166,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D50:D168,4)</f>
+        <v>6765</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="28">
-        <v>1001022376722</v>
+        <v>1001023696765</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F50" s="23"/>
       <c r="G50" s="23">
-        <f>E50*0.41</f>
+        <f>E50*0.36</f>
         <v>0</v>
       </c>
-      <c r="H50" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I50" s="14">
-        <v>45</v>
-      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="39"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D167,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D51:D169,4)</f>
+        <v>6909</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="28">
-        <v>1001022556837</v>
+        <v>1001025766909</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G51" s="23">
-        <f>E51*0.4</f>
+        <f>E51*F51</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="39"/>
+      <c r="K51" s="82"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D167,4)</f>
-        <v>3812</v>
+        <f>RIGHT(D52:D168,4)</f>
+        <v>6722</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="28">
-        <v>1001022373812</v>
+        <v>1001022376722</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23">
-        <v>2.125</v>
+        <v>0.41</v>
       </c>
       <c r="G52" s="23">
-        <f>E52*1</f>
+        <f>E52*0.41</f>
         <v>0</v>
       </c>
       <c r="H52" s="14">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="I52" s="14">
         <v>45</v>
       </c>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D168,4)</f>
-        <v>6113</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D53:D169,4)</f>
+        <v>6837</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022376113</v>
+        <v>1001022556837</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23">
-        <v>1.033333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G53" s="23">
-        <f>E53*1</f>
+        <f>E53*0.4</f>
         <v>0</v>
       </c>
-      <c r="H53" s="14">
-        <v>6.2000000000000011</v>
-      </c>
-      <c r="I53" s="14">
-        <v>45</v>
-      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="39"/>
-      <c r="K53" s="82"/>
-    </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
         <f>RIGHT(D54:D169,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>66</v>
+        <v>3812</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001022246661</v>
+        <v>1001022373812</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="23">
+        <v>2.125</v>
+      </c>
       <c r="G54" s="23">
         <f>E54*1</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="H54" s="14">
+        <v>4.25</v>
+      </c>
+      <c r="I54" s="14">
+        <v>45</v>
+      </c>
       <c r="J54" s="39"/>
-      <c r="K54" s="82"/>
-    </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
         <f>RIGHT(D55:D170,4)</f>
-        <v>6713</v>
+        <v>6113</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D55" s="28">
-        <v>1001022246713</v>
+        <v>1001022376113</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="23"/>
+      <c r="F55" s="23">
+        <v>1.033333333333333</v>
+      </c>
       <c r="G55" s="23">
-        <f>E55*0.41</f>
+        <f>E55*1</f>
         <v>0</v>
       </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+      <c r="H55" s="14">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="I55" s="14">
+        <v>45</v>
+      </c>
       <c r="J55" s="39"/>
       <c r="K55" s="82"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D166,4)</f>
+        <f>RIGHT(D56:D171,4)</f>
+        <v>6661</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="28">
+        <v>1001022246661</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23">
+        <f>E56*1</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="82"/>
+    </row>
+    <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="94" t="str">
+        <f>RIGHT(D57:D172,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23">
+        <f>E57*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="82"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="94" t="str">
+        <f>RIGHT(D58:D168,4)</f>
         <v/>
       </c>
-      <c r="B56" s="74" t="s">
+      <c r="B58" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="75"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D167,4)</f>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="75"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="94" t="str">
+        <f>RIGHT(D59:D169,4)</f>
         <v>5698</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B59" s="46" t="s">
         <v>69</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="28">
-        <v>1001034065698</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23">
-        <v>1.013333333333333</v>
-      </c>
-      <c r="G57" s="23">
-        <f>E57*1</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I57" s="14">
-        <v>30</v>
-      </c>
-      <c r="J57" s="39"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D170,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23">
-        <f>E58*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="39"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="94" t="str">
-        <f t="shared" ref="A59:A64" si="0">RIGHT(D59:D172,4)</f>
-        <v>6527</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>71</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001031076527</v>
+        <v>1001034065698</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23">
-        <v>1.0166666666666671</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="G59" s="23">
         <f>E59*1</f>
         <v>0</v>
       </c>
       <c r="H59" s="14">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="I59" s="14">
         <v>30</v>
       </c>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
+        <f>RIGHT(D60:D172,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="28">
+        <v>1001031076528</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23">
+        <f>E60*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="39"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="94" t="str">
+        <f t="shared" ref="A61:A66" si="0">RIGHT(D61:D174,4)</f>
+        <v>6527</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G61" s="23">
+        <f>E61*1</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I61" s="14">
+        <v>30</v>
+      </c>
+      <c r="J61" s="39"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B62" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="75"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="str">
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="75"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="94" t="str">
         <f t="shared" si="0"/>
         <v>6666</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B63" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C63" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D63" s="28">
         <v>1001302276666</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23">
+      <c r="E63" s="24"/>
+      <c r="F63" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G61" s="23">
-        <f>E61*0.28</f>
+      <c r="G63" s="23">
+        <f>E63*0.28</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H63" s="14">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I63" s="14">
         <v>45</v>
       </c>
-      <c r="J61" s="39"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94" t="str">
+      <c r="J63" s="39"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="94" t="str">
         <f t="shared" si="0"/>
         <v>6785</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B64" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C64" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D64" s="28">
         <v>1001300516785</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23">
-        <f>E62*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="39"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6786</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="28">
-        <v>1001300516786</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23">
-        <f>E63</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="39"/>
-    </row>
-    <row r="64" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6794</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="28">
-        <v>1001303636794</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64</f>
+        <f>E64*0.33</f>
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
-      <c r="I64" s="14">
+      <c r="I64" s="14"/>
+      <c r="J64" s="39"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>6786</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1001300516786</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23">
+        <f>E65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="39"/>
+    </row>
+    <row r="66" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>6794</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="28">
+        <v>1001303636794</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23">
+        <f>E66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14">
         <v>45</v>
       </c>
-      <c r="J64" s="39"/>
-      <c r="K64" s="82"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D175,4)</f>
+      <c r="J66" s="39"/>
+      <c r="K66" s="82"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="94" t="str">
+        <f>RIGHT(D67:D177,4)</f>
         <v>6773</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B67" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="28">
-        <v>1001303106773</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G65" s="23">
-        <f>E65*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I65" s="14">
-        <v>45</v>
-      </c>
-      <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D178,4)</f>
-        <v/>
-      </c>
-      <c r="B66" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="75"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D179,4)</f>
-        <v>6683</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>78</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>1001300386683</v>
+        <v>1001303106773</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G67" s="23">
-        <f>E67*0.35</f>
+        <f>E67*0.28</f>
         <v>0</v>
       </c>
       <c r="H67" s="14">
-        <v>2.8</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I67" s="14">
         <v>45</v>
       </c>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D181,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="28">
-        <v>1001303636793</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23">
-        <f>E68*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="39"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D68:D180,4)</f>
+        <v/>
+      </c>
+      <c r="B68" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D182,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D69:D181,4)</f>
+        <v>6683</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="28">
-        <v>1001302596795</v>
+        <v>1001300386683</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="23"/>
+      <c r="F69" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G69" s="23">
-        <f>E69*0.33</f>
+        <f>E69*0.35</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="H69" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I69" s="14">
+        <v>45</v>
+      </c>
       <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D182,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D70:D183,4)</f>
+        <v>6793</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="28">
-        <v>1001300366807</v>
+        <v>1001303636793</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23"/>
@@ -3509,47 +3521,41 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D182,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D71:D184,4)</f>
+        <v>6795</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="28">
-        <v>1001304506684</v>
+        <v>1001302596795</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F71" s="23"/>
       <c r="G71" s="23">
-        <f>E71*0.28</f>
+        <f>E71*0.33</f>
         <v>0</v>
       </c>
-      <c r="H71" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I71" s="14">
-        <v>45</v>
-      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="39"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
         <f>RIGHT(D72:D184,4)</f>
-        <v>6787</v>
+        <v>6807</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="28">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
@@ -3563,46 +3569,52 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D185,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D73:D184,4)</f>
+        <v>6684</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D73" s="28">
-        <v>1001300456788</v>
+        <v>1001304506684</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G73" s="23">
-        <f>E73*1</f>
+        <f>E73*0.28</f>
         <v>0</v>
       </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="H73" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I73" s="14">
+        <v>45</v>
+      </c>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
         <f>RIGHT(D74:D186,4)</f>
-        <v>6790</v>
+        <v>6787</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D74" s="28">
-        <v>1001300366790</v>
+        <v>1001300456787</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23">
-        <f>E74*1</f>
+        <f>E74*0.33</f>
         <v>0</v>
       </c>
       <c r="H74" s="14"/>
@@ -3611,52 +3623,46 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D185,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B75" s="64" t="s">
-        <v>86</v>
+        <f>RIGHT(D75:D187,4)</f>
+        <v>6788</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" s="28">
-        <v>1001303986689</v>
+        <v>1001300456788</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F75" s="23"/>
       <c r="G75" s="23">
-        <f>E75*0.35</f>
+        <f>E75*1</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I75" s="14">
-        <v>45</v>
-      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D186,4)</f>
-        <v>6791</v>
-      </c>
-      <c r="B76" s="64" t="s">
-        <v>87</v>
+        <f>RIGHT(D76:D188,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23">
-        <f>E76*0.33</f>
+        <f>E76*1</f>
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
@@ -3666,377 +3672,377 @@
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
         <f>RIGHT(D77:D187,4)</f>
-        <v>5341</v>
+        <v>6689</v>
       </c>
       <c r="B77" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D77" s="28">
-        <v>1001053985341</v>
+        <v>1001303986689</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23">
-        <v>0.71250000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="G77" s="23">
-        <f>E77*1</f>
+        <f>E77*0.35</f>
         <v>0</v>
       </c>
       <c r="H77" s="14">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="I77" s="14">
         <v>45</v>
       </c>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
         <f>RIGHT(D78:D188,4)</f>
-        <v>6459</v>
+        <v>6791</v>
       </c>
       <c r="B78" s="64" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="28">
-        <v>1001214196459</v>
+        <v>1001304096791</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F78" s="23"/>
       <c r="G78" s="23">
-        <f>E78*F78</f>
+        <f>E78*0.33</f>
         <v>0</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="39"/>
-      <c r="K78" s="82"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
         <f>RIGHT(D79:D189,4)</f>
-        <v>6586</v>
+        <v>5341</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D79" s="28">
-        <v>1001215576586</v>
+        <v>1001053985341</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
+      <c r="F79" s="23">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="G79" s="23">
-        <f>E79*0.09</f>
+        <f>E79*1</f>
         <v>0</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="H79" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I79" s="14">
+        <v>45</v>
+      </c>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D187,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D80:D190,4)</f>
+        <v>6459</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="28">
-        <v>1001225416228</v>
+        <v>1001214196459</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
+      <c r="F80" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G80" s="23">
-        <f>E80*0.09</f>
+        <f>E80*F80</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="39"/>
+      <c r="K80" s="82"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D187,4)</f>
+        <f>RIGHT(D81:D191,4)</f>
+        <v>6586</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="28">
+        <v>1001215576586</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23">
+        <f>E81*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="39"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="94" t="str">
+        <f>RIGHT(D82:D189,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23">
+        <f>E82*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="39"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="94" t="str">
+        <f>RIGHT(D83:D189,4)</f>
         <v>5544</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B83" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C83" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D83" s="28">
         <v>1001051875544</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23">
+      <c r="E83" s="24"/>
+      <c r="F83" s="23">
         <v>0.85</v>
       </c>
-      <c r="G81" s="23">
-        <f>E81*1</f>
+      <c r="G83" s="23">
+        <f>E83*1</f>
         <v>0</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H83" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I83" s="14">
         <v>45</v>
       </c>
-      <c r="J81" s="39"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="94" t="str">
-        <f t="shared" ref="A82:A87" si="1">RIGHT(D82:D189,4)</f>
+      <c r="J83" s="39"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="94" t="str">
+        <f t="shared" ref="A84:A89" si="1">RIGHT(D84:D191,4)</f>
         <v>6697</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B84" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C84" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D84" s="28">
         <v>1001301876697</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23">
+      <c r="E84" s="24"/>
+      <c r="F84" s="23">
         <v>0.35</v>
       </c>
-      <c r="G82" s="23">
-        <f>E82*0.35</f>
+      <c r="G84" s="23">
+        <f>E84*0.35</f>
         <v>0</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H84" s="14">
         <v>2.8</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I84" s="14">
         <v>45</v>
       </c>
-      <c r="J82" s="39"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="94" t="str">
+      <c r="J84" s="39"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B83" s="74" t="s">
+      <c r="B85" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
-      <c r="J83" s="75"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94" t="str">
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="75"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="94" t="str">
         <f t="shared" si="1"/>
         <v>5706</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B86" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G84" s="23">
-        <f>E84*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="14">
-        <v>2</v>
-      </c>
-      <c r="I84" s="14">
-        <v>120</v>
-      </c>
-      <c r="J84" s="39"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6454</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="28">
-        <v>1001201976454</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G85" s="23">
-        <f>E85*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I85" s="14">
-        <v>60</v>
-      </c>
-      <c r="J85" s="39"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6222</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>96</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>1001205386222</v>
+        <v>1001061975706</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G86" s="23">
-        <f>E86*0.09</f>
+        <f>E86*0.25</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="14">
+        <v>2</v>
+      </c>
+      <c r="I86" s="14">
+        <v>120</v>
+      </c>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>5931</v>
+        <v>6454</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="28">
-        <v>1001060755931</v>
+        <v>1001201976454</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="G87" s="23">
-        <f>E87*0.22</f>
+        <f>E87*0.1</f>
         <v>0</v>
       </c>
       <c r="H87" s="14">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="I87" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D196,4)</f>
-        <v>5708</v>
+        <f t="shared" si="1"/>
+        <v>6222</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D88" s="28">
-        <v>1001063145708</v>
+        <v>1001205386222</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.51249999999999996</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*1</f>
+        <f>E88*0.09</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I88" s="14">
-        <v>120</v>
-      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D197,4)</f>
-        <v>6834</v>
+        <f t="shared" si="1"/>
+        <v>5931</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="28">
-        <v>1001203146834</v>
+        <v>1001060755931</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="23">
+        <v>0.22</v>
+      </c>
       <c r="G89" s="23">
-        <f>E89*0.1</f>
+        <f>E89*0.22</f>
         <v>0</v>
       </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="H89" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="I89" s="14">
+        <v>120</v>
+      </c>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D201,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D90:D198,4)</f>
+        <v>5708</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D90" s="28">
-        <v>1001060764993</v>
+        <v>1001063145708</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23">
-        <v>0.25</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="G90" s="23">
-        <f>E90*0.25</f>
+        <f>E90*1</f>
         <v>0</v>
       </c>
       <c r="H90" s="14">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I90" s="14">
         <v>120</v>
@@ -4045,58 +4051,52 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D202,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D91:D199,4)</f>
+        <v>6834</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="28">
-        <v>1001193115682</v>
+        <v>1001203146834</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23">
-        <v>0.12</v>
-      </c>
+      <c r="F91" s="23"/>
       <c r="G91" s="23">
-        <f>E91*0.12</f>
+        <f>E91*0.1</f>
         <v>0</v>
       </c>
-      <c r="H91" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I91" s="14">
-        <v>60</v>
-      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D205,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D92:D203,4)</f>
+        <v>4993</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D92" s="28">
-        <v>1001062504117</v>
+        <v>1001060764993</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G92" s="23">
-        <f>E92*1</f>
+        <f>E92*0.25</f>
         <v>0</v>
       </c>
       <c r="H92" s="14">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="I92" s="14">
         <v>120</v>
@@ -4105,145 +4105,154 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D206,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D93:D204,4)</f>
+        <v>5682</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="28">
-        <v>1001062505483</v>
+        <v>1001193115682</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G93" s="23">
-        <f>E93*0.25</f>
+        <f>E93*0.12</f>
         <v>0</v>
       </c>
       <c r="H93" s="14">
-        <v>2</v>
+        <v>0.96</v>
       </c>
       <c r="I93" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J93" s="39"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
         <f>RIGHT(D94:D207,4)</f>
-        <v>6453</v>
+        <v>4117</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D94" s="28">
-        <v>1001202506453</v>
+        <v>1001062504117</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23">
-        <v>0.1</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G94" s="23">
-        <f>E94*0.1</f>
+        <f>E94*1</f>
         <v>0</v>
       </c>
       <c r="H94" s="14">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="I94" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
         <f>RIGHT(D95:D208,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G95" s="23">
+        <f>E95*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>2</v>
+      </c>
+      <c r="I95" s="14">
+        <v>120</v>
+      </c>
+      <c r="J95" s="39"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="94" t="str">
+        <f>RIGHT(D96:D209,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G96" s="23">
+        <f>E96*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I96" s="14">
+        <v>60</v>
+      </c>
+      <c r="J96" s="39"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="94" t="str">
+        <f>RIGHT(D97:D210,4)</f>
         <v/>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B97" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
-      <c r="H95" s="74"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="75"/>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D212,4)</f>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="75"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="94" t="str">
+        <f>RIGHT(D98:D214,4)</f>
         <v>6470</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B98" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23">
-        <f>E96*1</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="39"/>
-    </row>
-    <row r="97" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D213,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G97" s="23">
-        <f>F97*E97</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="82"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D213,4)</f>
-        <v>6865</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="C98" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="80">
-        <v>1001095716865</v>
+        <v>1001092436470</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23"/>
@@ -4255,290 +4264,294 @@
       <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
-    <row r="99" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D210,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="37" t="s">
+        <f>RIGHT(D99:D215,4)</f>
+        <v>6495</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="51">
-        <v>1001094053215</v>
+      <c r="D99" s="80">
+        <v>1001092436495</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G99" s="23">
-        <f>E99*0.4</f>
+        <f>F99*E99</f>
         <v>0</v>
       </c>
-      <c r="H99" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I99" s="14">
-        <v>60</v>
-      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="39"/>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K99" s="82"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D213,4)</f>
-        <v/>
-      </c>
-      <c r="B100" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="75"/>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D100:D215,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="80">
+        <v>1001095716865</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23">
+        <f>E100*1</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="39"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D216,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="35" t="s">
+        <f>RIGHT(D101:D212,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="28">
-        <v>1001084216206</v>
+      <c r="D101" s="51">
+        <v>1001094053215</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G101" s="23">
-        <f>E101*0.3</f>
+        <f>E101*0.4</f>
         <v>0</v>
       </c>
       <c r="H101" s="14">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="I101" s="14">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D217,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B102" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="28">
-        <v>1001223296919</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23">
-        <f>E102*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="96"/>
-      <c r="I102" s="96"/>
-      <c r="J102" s="93"/>
-    </row>
-    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D102:D215,4)</f>
+        <v/>
+      </c>
+      <c r="B102" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="75"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
         <f>RIGHT(D103:D218,4)</f>
+        <v>6206</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="28">
+        <v>1001084216206</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G103" s="23">
+        <f>E103*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I103" s="14">
+        <v>30</v>
+      </c>
+      <c r="J103" s="39"/>
+    </row>
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="94" t="str">
+        <f>RIGHT(D104:D219,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23">
+        <f>E104*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="93"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="94" t="str">
+        <f>RIGHT(D105:D220,4)</f>
         <v/>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B105" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="75"/>
-    </row>
-    <row r="104" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D221,4)</f>
-        <v/>
-      </c>
-      <c r="B104" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="75"/>
-    </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D222,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B105" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G105" s="23">
-        <f>E105*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="14">
-        <v>8</v>
-      </c>
-      <c r="I105" s="72">
-        <v>120</v>
-      </c>
-      <c r="J105" s="39"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="75"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="94" t="str">
         <f>RIGHT(D106:D223,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B106" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23">
-        <f>E106*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="39"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="75"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
         <f>RIGHT(D107:D224,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="23">
+        <f>E107*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="14">
+        <v>8</v>
+      </c>
+      <c r="I107" s="72">
+        <v>120</v>
+      </c>
+      <c r="J107" s="39"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="94" t="str">
+        <f>RIGHT(D108:D225,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23">
+        <f>E108*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="14"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="39"/>
+    </row>
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="94" t="str">
+        <f>RIGHT(D109:D226,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B109" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23">
-        <f>E107*0.45</f>
+      <c r="E109" s="24"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23">
+        <f>E109*0.45</f>
         <v>0</v>
       </c>
-      <c r="H107" s="14"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="39"/>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="94" t="str">
-        <f t="shared" ref="A108:A119" si="2">RIGHT(D108:D223,4)</f>
+      <c r="H109" s="14"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="39"/>
+    </row>
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="94" t="str">
+        <f t="shared" ref="A110:A121" si="2">RIGHT(D110:D225,4)</f>
         <v>6313</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B110" s="47" t="s">
         <v>117</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G108" s="23">
-        <f>E108*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="14">
-        <v>9</v>
-      </c>
-      <c r="I108" s="72">
-        <v>120</v>
-      </c>
-      <c r="J108" s="39"/>
-    </row>
-    <row r="109" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B109" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="75"/>
-    </row>
-    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>4945</v>
-      </c>
-      <c r="B110" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="C110" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G110" s="23">
-        <f>E110*0.5</f>
+        <f>E110*0.9</f>
         <v>0</v>
       </c>
       <c r="H110" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I110" s="72">
         <v>120</v>
@@ -4551,7 +4564,7 @@
         <v/>
       </c>
       <c r="B111" s="74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C111" s="74"/>
       <c r="D111" s="74"/>
@@ -4562,204 +4575,191 @@
       <c r="I111" s="74"/>
       <c r="J111" s="75"/>
     </row>
-    <row r="112" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>4956</v>
-      </c>
-      <c r="B112" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C112" s="90" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E112" s="84"/>
-      <c r="F112" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G112" s="85">
-        <f>E112*0.42</f>
+      <c r="D112" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G112" s="23">
+        <f>E112*0.5</f>
         <v>0</v>
       </c>
-      <c r="H112" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I112" s="91">
+      <c r="H112" s="14">
+        <v>8</v>
+      </c>
+      <c r="I112" s="72">
         <v>120</v>
       </c>
-      <c r="J112" s="86"/>
-      <c r="K112" s="87"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="39"/>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>1762</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G113" s="23">
-        <f>E113*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I113" s="72">
+        <v/>
+      </c>
+      <c r="B113" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="J113" s="39"/>
-    </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="75"/>
+    </row>
+    <row r="114" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>1764</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" s="36" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B114" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="23">
+      <c r="D114" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E114" s="84"/>
+      <c r="F114" s="85">
         <v>0.42</v>
       </c>
-      <c r="G114" s="23">
+      <c r="G114" s="85">
         <f>E114*0.42</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="86">
         <v>4.2</v>
       </c>
-      <c r="I114" s="72">
+      <c r="I114" s="91">
         <v>120</v>
       </c>
-      <c r="J114" s="39"/>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J114" s="86"/>
+      <c r="K114" s="87"/>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B115" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="75"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1762</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G115" s="23">
+        <f>E115*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I115" s="72">
+        <v>120</v>
+      </c>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B116" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C116" s="74"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="74"/>
-      <c r="H116" s="74"/>
-      <c r="I116" s="74"/>
-      <c r="J116" s="75"/>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1764</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G116" s="23">
+        <f>E116*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I116" s="72">
+        <v>120</v>
+      </c>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>6004</v>
-      </c>
-      <c r="B117" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="23">
-        <v>1</v>
-      </c>
-      <c r="G117" s="23">
-        <f>E117*1</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="14">
-        <v>8</v>
-      </c>
-      <c r="I117" s="72">
-        <v>120</v>
-      </c>
-      <c r="J117" s="39"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B117" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="75"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>5417</v>
-      </c>
-      <c r="B118" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="23">
-        <v>2</v>
-      </c>
-      <c r="G118" s="23">
-        <f>E118*1</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="14">
-        <v>6</v>
-      </c>
-      <c r="I118" s="72">
-        <v>90</v>
-      </c>
-      <c r="J118" s="39"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="B118" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="75"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>6019</v>
+        <v>6004</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C119" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="69" t="s">
-        <v>131</v>
+      <c r="D119" s="68" t="s">
+        <v>127</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
@@ -4770,60 +4770,100 @@
         <v>0</v>
       </c>
       <c r="H119" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I119" s="72">
         <v>120</v>
       </c>
       <c r="J119" s="39"/>
     </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="77"/>
-      <c r="B120" s="77" t="s">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>5417</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="23">
+        <v>2</v>
+      </c>
+      <c r="G120" s="23">
+        <f>E120*1</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <v>6</v>
+      </c>
+      <c r="I120" s="72">
+        <v>90</v>
+      </c>
+      <c r="J120" s="39"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>6019</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="23">
+        <v>1</v>
+      </c>
+      <c r="G121" s="23">
+        <f>E121*1</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="14">
+        <v>12</v>
+      </c>
+      <c r="I121" s="72">
+        <v>120</v>
+      </c>
+      <c r="J121" s="39"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="77"/>
+      <c r="B122" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="17">
-        <f>SUM(E5:E119)</f>
+      <c r="C122" s="16"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="17">
+        <f>SUM(E5:E121)</f>
         <v>0</v>
       </c>
-      <c r="F120" s="17">
-        <f>SUM(F10:F119)</f>
-        <v>35.014166666666675</v>
-      </c>
-      <c r="G120" s="17">
-        <f>SUM(G11:G119)</f>
+      <c r="F122" s="17">
+        <f>SUM(F10:F121)</f>
+        <v>35.744166666666672</v>
+      </c>
+      <c r="G122" s="17">
+        <f>SUM(G11:G121)</f>
         <v>0</v>
       </c>
-      <c r="H120" s="17">
-        <f>SUM(H10:H116)</f>
+      <c r="H122" s="17">
+        <f>SUM(H10:H118)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="53"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="52"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="21"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="53"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="52"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="21"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B123" s="53"/>
       <c r="C123" s="18"/>
       <c r="D123" s="52"/>
@@ -4833,7 +4873,7 @@
       <c r="I123" s="20"/>
       <c r="J123" s="21"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B124" s="53"/>
       <c r="C124" s="18"/>
       <c r="D124" s="52"/>
@@ -4843,7 +4883,7 @@
       <c r="I124" s="20"/>
       <c r="J124" s="21"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="53"/>
       <c r="C125" s="18"/>
       <c r="D125" s="52"/>
@@ -4853,7 +4893,7 @@
       <c r="I125" s="20"/>
       <c r="J125" s="21"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="53"/>
       <c r="C126" s="18"/>
       <c r="D126" s="52"/>
@@ -4863,7 +4903,7 @@
       <c r="I126" s="20"/>
       <c r="J126" s="21"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="53"/>
       <c r="C127" s="18"/>
       <c r="D127" s="52"/>
@@ -4873,7 +4913,7 @@
       <c r="I127" s="20"/>
       <c r="J127" s="21"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" s="53"/>
       <c r="C128" s="18"/>
       <c r="D128" s="52"/>
@@ -20043,17 +20083,37 @@
       <c r="I1644" s="20"/>
       <c r="J1644" s="21"/>
     </row>
+    <row r="1645" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1645" s="53"/>
+      <c r="C1645" s="18"/>
+      <c r="D1645" s="52"/>
+      <c r="F1645" s="19"/>
+      <c r="G1645" s="19"/>
+      <c r="H1645" s="20"/>
+      <c r="I1645" s="20"/>
+      <c r="J1645" s="21"/>
+    </row>
+    <row r="1646" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1646" s="53"/>
+      <c r="C1646" s="18"/>
+      <c r="D1646" s="52"/>
+      <c r="F1646" s="19"/>
+      <c r="G1646" s="19"/>
+      <c r="H1646" s="20"/>
+      <c r="I1646" s="20"/>
+      <c r="J1646" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B113" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B115" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D117:D119" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D119:D121" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
